--- a/Generated Files/College Football Bowl Game Analysis.xlsx
+++ b/Generated Files/College Football Bowl Game Analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="343">
   <si>
     <t>School</t>
   </si>
@@ -1402,7 +1402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:U213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10211,6 +10211,24 @@
       <c r="I136" t="b">
         <v>0</v>
       </c>
+      <c r="J136">
+        <v>313</v>
+      </c>
+      <c r="K136">
+        <v>556</v>
+      </c>
+      <c r="L136">
+        <v>120</v>
+      </c>
+      <c r="M136">
+        <v>197</v>
+      </c>
+      <c r="N136">
+        <v>193</v>
+      </c>
+      <c r="O136">
+        <v>359</v>
+      </c>
       <c r="P136" t="s">
         <v>265</v>
       </c>
@@ -10258,6 +10276,24 @@
       <c r="I137" t="b">
         <v>1</v>
       </c>
+      <c r="J137">
+        <v>556</v>
+      </c>
+      <c r="K137">
+        <v>313</v>
+      </c>
+      <c r="L137">
+        <v>197</v>
+      </c>
+      <c r="M137">
+        <v>120</v>
+      </c>
+      <c r="N137">
+        <v>359</v>
+      </c>
+      <c r="O137">
+        <v>193</v>
+      </c>
       <c r="P137" t="s">
         <v>266</v>
       </c>
@@ -10305,6 +10341,24 @@
       <c r="I138" t="b">
         <v>1</v>
       </c>
+      <c r="J138">
+        <v>482</v>
+      </c>
+      <c r="K138">
+        <v>258</v>
+      </c>
+      <c r="L138">
+        <v>337</v>
+      </c>
+      <c r="M138">
+        <v>84</v>
+      </c>
+      <c r="N138">
+        <v>145</v>
+      </c>
+      <c r="O138">
+        <v>174</v>
+      </c>
       <c r="P138" t="s">
         <v>262</v>
       </c>
@@ -10352,6 +10406,24 @@
       <c r="I139" t="b">
         <v>0</v>
       </c>
+      <c r="J139">
+        <v>258</v>
+      </c>
+      <c r="K139">
+        <v>482</v>
+      </c>
+      <c r="L139">
+        <v>84</v>
+      </c>
+      <c r="M139">
+        <v>337</v>
+      </c>
+      <c r="N139">
+        <v>174</v>
+      </c>
+      <c r="O139">
+        <v>145</v>
+      </c>
       <c r="P139" t="s">
         <v>259</v>
       </c>
@@ -10399,6 +10471,24 @@
       <c r="I140" t="b">
         <v>0</v>
       </c>
+      <c r="J140">
+        <v>293</v>
+      </c>
+      <c r="K140">
+        <v>436</v>
+      </c>
+      <c r="L140">
+        <v>164</v>
+      </c>
+      <c r="M140">
+        <v>260</v>
+      </c>
+      <c r="N140">
+        <v>129</v>
+      </c>
+      <c r="O140">
+        <v>176</v>
+      </c>
       <c r="P140" t="s">
         <v>264</v>
       </c>
@@ -10446,6 +10536,24 @@
       <c r="I141" t="b">
         <v>1</v>
       </c>
+      <c r="J141">
+        <v>436</v>
+      </c>
+      <c r="K141">
+        <v>293</v>
+      </c>
+      <c r="L141">
+        <v>260</v>
+      </c>
+      <c r="M141">
+        <v>164</v>
+      </c>
+      <c r="N141">
+        <v>176</v>
+      </c>
+      <c r="O141">
+        <v>129</v>
+      </c>
       <c r="P141" t="s">
         <v>266</v>
       </c>
@@ -10493,6 +10601,24 @@
       <c r="I142" t="b">
         <v>0</v>
       </c>
+      <c r="J142">
+        <v>301</v>
+      </c>
+      <c r="K142">
+        <v>364</v>
+      </c>
+      <c r="L142">
+        <v>97</v>
+      </c>
+      <c r="M142">
+        <v>331</v>
+      </c>
+      <c r="N142">
+        <v>204</v>
+      </c>
+      <c r="O142">
+        <v>33</v>
+      </c>
       <c r="P142" t="s">
         <v>261</v>
       </c>
@@ -10540,6 +10666,24 @@
       <c r="I143" t="b">
         <v>1</v>
       </c>
+      <c r="J143">
+        <v>364</v>
+      </c>
+      <c r="K143">
+        <v>301</v>
+      </c>
+      <c r="L143">
+        <v>331</v>
+      </c>
+      <c r="M143">
+        <v>97</v>
+      </c>
+      <c r="N143">
+        <v>33</v>
+      </c>
+      <c r="O143">
+        <v>204</v>
+      </c>
       <c r="P143" t="s">
         <v>259</v>
       </c>
@@ -10587,6 +10731,24 @@
       <c r="I144" t="b">
         <v>1</v>
       </c>
+      <c r="J144">
+        <v>448</v>
+      </c>
+      <c r="K144">
+        <v>392</v>
+      </c>
+      <c r="L144">
+        <v>233</v>
+      </c>
+      <c r="M144">
+        <v>62</v>
+      </c>
+      <c r="N144">
+        <v>215</v>
+      </c>
+      <c r="O144">
+        <v>330</v>
+      </c>
       <c r="P144" t="s">
         <v>259</v>
       </c>
@@ -10634,6 +10796,24 @@
       <c r="I145" t="b">
         <v>0</v>
       </c>
+      <c r="J145">
+        <v>392</v>
+      </c>
+      <c r="K145">
+        <v>448</v>
+      </c>
+      <c r="L145">
+        <v>62</v>
+      </c>
+      <c r="M145">
+        <v>233</v>
+      </c>
+      <c r="N145">
+        <v>330</v>
+      </c>
+      <c r="O145">
+        <v>215</v>
+      </c>
       <c r="P145" t="s">
         <v>265</v>
       </c>
@@ -10681,6 +10861,24 @@
       <c r="I146" t="b">
         <v>1</v>
       </c>
+      <c r="J146">
+        <v>476</v>
+      </c>
+      <c r="K146">
+        <v>287</v>
+      </c>
+      <c r="L146">
+        <v>103</v>
+      </c>
+      <c r="M146">
+        <v>108</v>
+      </c>
+      <c r="N146">
+        <v>373</v>
+      </c>
+      <c r="O146">
+        <v>179</v>
+      </c>
       <c r="P146" t="s">
         <v>265</v>
       </c>
@@ -10728,6 +10926,24 @@
       <c r="I147" t="b">
         <v>0</v>
       </c>
+      <c r="J147">
+        <v>287</v>
+      </c>
+      <c r="K147">
+        <v>476</v>
+      </c>
+      <c r="L147">
+        <v>108</v>
+      </c>
+      <c r="M147">
+        <v>103</v>
+      </c>
+      <c r="N147">
+        <v>179</v>
+      </c>
+      <c r="O147">
+        <v>373</v>
+      </c>
       <c r="P147" t="s">
         <v>261</v>
       </c>
@@ -10775,6 +10991,24 @@
       <c r="I148" t="b">
         <v>1</v>
       </c>
+      <c r="J148">
+        <v>421</v>
+      </c>
+      <c r="K148">
+        <v>287</v>
+      </c>
+      <c r="L148">
+        <v>215</v>
+      </c>
+      <c r="M148">
+        <v>153</v>
+      </c>
+      <c r="N148">
+        <v>206</v>
+      </c>
+      <c r="O148">
+        <v>134</v>
+      </c>
       <c r="P148" t="s">
         <v>261</v>
       </c>
@@ -10822,6 +11056,24 @@
       <c r="I149" t="b">
         <v>0</v>
       </c>
+      <c r="J149">
+        <v>287</v>
+      </c>
+      <c r="K149">
+        <v>421</v>
+      </c>
+      <c r="L149">
+        <v>153</v>
+      </c>
+      <c r="M149">
+        <v>215</v>
+      </c>
+      <c r="N149">
+        <v>134</v>
+      </c>
+      <c r="O149">
+        <v>206</v>
+      </c>
       <c r="P149" t="s">
         <v>266</v>
       </c>
@@ -10869,6 +11121,24 @@
       <c r="I150" t="b">
         <v>1</v>
       </c>
+      <c r="J150">
+        <v>503</v>
+      </c>
+      <c r="K150">
+        <v>360</v>
+      </c>
+      <c r="L150">
+        <v>282</v>
+      </c>
+      <c r="M150">
+        <v>92</v>
+      </c>
+      <c r="N150">
+        <v>221</v>
+      </c>
+      <c r="O150">
+        <v>268</v>
+      </c>
       <c r="P150" t="s">
         <v>265</v>
       </c>
@@ -10916,6 +11186,24 @@
       <c r="I151" t="b">
         <v>0</v>
       </c>
+      <c r="J151">
+        <v>360</v>
+      </c>
+      <c r="K151">
+        <v>503</v>
+      </c>
+      <c r="L151">
+        <v>92</v>
+      </c>
+      <c r="M151">
+        <v>282</v>
+      </c>
+      <c r="N151">
+        <v>268</v>
+      </c>
+      <c r="O151">
+        <v>221</v>
+      </c>
       <c r="P151" t="s">
         <v>262</v>
       </c>
@@ -10963,6 +11251,24 @@
       <c r="I152" t="b">
         <v>0</v>
       </c>
+      <c r="J152">
+        <v>388</v>
+      </c>
+      <c r="K152">
+        <v>459</v>
+      </c>
+      <c r="L152">
+        <v>124</v>
+      </c>
+      <c r="M152">
+        <v>236</v>
+      </c>
+      <c r="N152">
+        <v>264</v>
+      </c>
+      <c r="O152">
+        <v>223</v>
+      </c>
       <c r="P152" t="s">
         <v>261</v>
       </c>
@@ -11010,6 +11316,24 @@
       <c r="I153" t="b">
         <v>1</v>
       </c>
+      <c r="J153">
+        <v>459</v>
+      </c>
+      <c r="K153">
+        <v>388</v>
+      </c>
+      <c r="L153">
+        <v>236</v>
+      </c>
+      <c r="M153">
+        <v>124</v>
+      </c>
+      <c r="N153">
+        <v>223</v>
+      </c>
+      <c r="O153">
+        <v>264</v>
+      </c>
       <c r="P153" t="s">
         <v>265</v>
       </c>
@@ -11057,6 +11381,24 @@
       <c r="I154" t="b">
         <v>1</v>
       </c>
+      <c r="J154">
+        <v>490</v>
+      </c>
+      <c r="K154">
+        <v>313</v>
+      </c>
+      <c r="L154">
+        <v>132</v>
+      </c>
+      <c r="M154">
+        <v>138</v>
+      </c>
+      <c r="N154">
+        <v>358</v>
+      </c>
+      <c r="O154">
+        <v>175</v>
+      </c>
       <c r="P154" t="s">
         <v>260</v>
       </c>
@@ -11104,6 +11446,24 @@
       <c r="I155" t="b">
         <v>0</v>
       </c>
+      <c r="J155">
+        <v>313</v>
+      </c>
+      <c r="K155">
+        <v>490</v>
+      </c>
+      <c r="L155">
+        <v>138</v>
+      </c>
+      <c r="M155">
+        <v>132</v>
+      </c>
+      <c r="N155">
+        <v>175</v>
+      </c>
+      <c r="O155">
+        <v>358</v>
+      </c>
       <c r="P155" t="s">
         <v>261</v>
       </c>
@@ -11151,6 +11511,24 @@
       <c r="I156" t="b">
         <v>1</v>
       </c>
+      <c r="J156">
+        <v>529</v>
+      </c>
+      <c r="K156">
+        <v>378</v>
+      </c>
+      <c r="L156">
+        <v>201</v>
+      </c>
+      <c r="M156">
+        <v>207</v>
+      </c>
+      <c r="N156">
+        <v>328</v>
+      </c>
+      <c r="O156">
+        <v>171</v>
+      </c>
       <c r="P156" t="s">
         <v>263</v>
       </c>
@@ -11198,6 +11576,24 @@
       <c r="I157" t="b">
         <v>0</v>
       </c>
+      <c r="J157">
+        <v>378</v>
+      </c>
+      <c r="K157">
+        <v>529</v>
+      </c>
+      <c r="L157">
+        <v>207</v>
+      </c>
+      <c r="M157">
+        <v>201</v>
+      </c>
+      <c r="N157">
+        <v>171</v>
+      </c>
+      <c r="O157">
+        <v>328</v>
+      </c>
       <c r="P157" t="s">
         <v>262</v>
       </c>
@@ -11245,6 +11641,24 @@
       <c r="I158" t="b">
         <v>1</v>
       </c>
+      <c r="J158">
+        <v>592</v>
+      </c>
+      <c r="K158">
+        <v>320</v>
+      </c>
+      <c r="L158">
+        <v>507</v>
+      </c>
+      <c r="M158">
+        <v>90</v>
+      </c>
+      <c r="N158">
+        <v>85</v>
+      </c>
+      <c r="O158">
+        <v>230</v>
+      </c>
       <c r="P158" t="s">
         <v>260</v>
       </c>
@@ -11292,6 +11706,24 @@
       <c r="I159" t="b">
         <v>0</v>
       </c>
+      <c r="J159">
+        <v>320</v>
+      </c>
+      <c r="K159">
+        <v>592</v>
+      </c>
+      <c r="L159">
+        <v>90</v>
+      </c>
+      <c r="M159">
+        <v>507</v>
+      </c>
+      <c r="N159">
+        <v>230</v>
+      </c>
+      <c r="O159">
+        <v>85</v>
+      </c>
       <c r="P159" t="s">
         <v>262</v>
       </c>
@@ -11339,6 +11771,24 @@
       <c r="I160" t="b">
         <v>0</v>
       </c>
+      <c r="J160">
+        <v>376</v>
+      </c>
+      <c r="K160">
+        <v>433</v>
+      </c>
+      <c r="L160">
+        <v>102</v>
+      </c>
+      <c r="M160">
+        <v>113</v>
+      </c>
+      <c r="N160">
+        <v>274</v>
+      </c>
+      <c r="O160">
+        <v>320</v>
+      </c>
       <c r="P160" t="s">
         <v>261</v>
       </c>
@@ -11386,6 +11836,24 @@
       <c r="I161" t="b">
         <v>1</v>
       </c>
+      <c r="J161">
+        <v>433</v>
+      </c>
+      <c r="K161">
+        <v>376</v>
+      </c>
+      <c r="L161">
+        <v>113</v>
+      </c>
+      <c r="M161">
+        <v>102</v>
+      </c>
+      <c r="N161">
+        <v>320</v>
+      </c>
+      <c r="O161">
+        <v>274</v>
+      </c>
       <c r="P161" t="s">
         <v>259</v>
       </c>
@@ -11433,6 +11901,24 @@
       <c r="I162" t="b">
         <v>0</v>
       </c>
+      <c r="J162">
+        <v>226</v>
+      </c>
+      <c r="K162">
+        <v>453</v>
+      </c>
+      <c r="L162">
+        <v>58</v>
+      </c>
+      <c r="M162">
+        <v>168</v>
+      </c>
+      <c r="N162">
+        <v>168</v>
+      </c>
+      <c r="O162">
+        <v>285</v>
+      </c>
       <c r="P162" t="s">
         <v>266</v>
       </c>
@@ -11480,6 +11966,24 @@
       <c r="I163" t="b">
         <v>1</v>
       </c>
+      <c r="J163">
+        <v>453</v>
+      </c>
+      <c r="K163">
+        <v>226</v>
+      </c>
+      <c r="L163">
+        <v>168</v>
+      </c>
+      <c r="M163">
+        <v>58</v>
+      </c>
+      <c r="N163">
+        <v>285</v>
+      </c>
+      <c r="O163">
+        <v>168</v>
+      </c>
       <c r="P163" t="s">
         <v>265</v>
       </c>
@@ -11501,46 +12005,64 @@
     </row>
     <row r="164" spans="1:21">
       <c r="A164" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B164" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="C164">
         <v>2018</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E164" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I164" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>392</v>
+      </c>
+      <c r="K164">
+        <v>283</v>
+      </c>
+      <c r="L164">
+        <v>260</v>
+      </c>
+      <c r="M164">
+        <v>206</v>
+      </c>
+      <c r="N164">
+        <v>132</v>
+      </c>
+      <c r="O164">
+        <v>77</v>
       </c>
       <c r="P164" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q164" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="R164" t="s">
         <v>277</v>
       </c>
       <c r="S164" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="T164" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="U164" t="s">
         <v>278</v>
@@ -11548,46 +12070,64 @@
     </row>
     <row r="165" spans="1:21">
       <c r="A165" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="B165" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="C165">
         <v>2018</v>
       </c>
       <c r="D165" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E165" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="I165" t="b">
         <v>0</v>
       </c>
+      <c r="J165">
+        <v>283</v>
+      </c>
+      <c r="K165">
+        <v>392</v>
+      </c>
+      <c r="L165">
+        <v>206</v>
+      </c>
+      <c r="M165">
+        <v>260</v>
+      </c>
+      <c r="N165">
+        <v>77</v>
+      </c>
+      <c r="O165">
+        <v>132</v>
+      </c>
       <c r="P165" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q165" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R165" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S165" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="T165" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="U165" t="s">
         <v>277</v>
@@ -11595,93 +12135,129 @@
     </row>
     <row r="166" spans="1:21">
       <c r="A166" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B166" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C166">
         <v>2018</v>
       </c>
       <c r="D166" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F166">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G166">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H166">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I166" t="b">
         <v>1</v>
       </c>
+      <c r="J166">
+        <v>290</v>
+      </c>
+      <c r="K166">
+        <v>264</v>
+      </c>
+      <c r="L166">
+        <v>262</v>
+      </c>
+      <c r="M166">
+        <v>100</v>
+      </c>
+      <c r="N166">
+        <v>28</v>
+      </c>
+      <c r="O166">
+        <v>164</v>
+      </c>
       <c r="P166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q166" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R166" t="s">
         <v>277</v>
       </c>
       <c r="S166" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="T166" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="U166" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:21">
       <c r="A167" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B167" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C167">
         <v>2018</v>
       </c>
       <c r="D167" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E167" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F167">
+        <v>7</v>
+      </c>
+      <c r="G167">
         <v>10</v>
       </c>
-      <c r="G167">
-        <v>34</v>
-      </c>
       <c r="H167">
-        <v>-24</v>
+        <v>-3</v>
       </c>
       <c r="I167" t="b">
         <v>0</v>
       </c>
+      <c r="J167">
+        <v>264</v>
+      </c>
+      <c r="K167">
+        <v>290</v>
+      </c>
+      <c r="L167">
+        <v>100</v>
+      </c>
+      <c r="M167">
+        <v>262</v>
+      </c>
+      <c r="N167">
+        <v>164</v>
+      </c>
+      <c r="O167">
+        <v>28</v>
+      </c>
       <c r="P167" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q167" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R167" t="s">
         <v>277</v>
       </c>
       <c r="S167" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T167" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U167" t="s">
         <v>277</v>
@@ -11689,46 +12265,64 @@
     </row>
     <row r="168" spans="1:21">
       <c r="A168" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B168" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C168">
         <v>2018</v>
       </c>
       <c r="D168" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E168" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G168">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>-29</v>
       </c>
       <c r="I168" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>281</v>
+      </c>
+      <c r="K168">
+        <v>563</v>
+      </c>
+      <c r="L168">
+        <v>53</v>
+      </c>
+      <c r="M168">
+        <v>123</v>
+      </c>
+      <c r="N168">
+        <v>228</v>
+      </c>
+      <c r="O168">
+        <v>440</v>
       </c>
       <c r="P168" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q168" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S168" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T168" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="U168" t="s">
         <v>277</v>
@@ -11736,93 +12330,129 @@
     </row>
     <row r="169" spans="1:21">
       <c r="A169" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B169" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C169">
         <v>2018</v>
       </c>
       <c r="D169" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="E169" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="F169">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G169">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H169">
-        <v>-3</v>
+        <v>29</v>
       </c>
       <c r="I169" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>563</v>
+      </c>
+      <c r="K169">
+        <v>281</v>
+      </c>
+      <c r="L169">
+        <v>123</v>
+      </c>
+      <c r="M169">
+        <v>53</v>
+      </c>
+      <c r="N169">
+        <v>440</v>
+      </c>
+      <c r="O169">
+        <v>228</v>
       </c>
       <c r="P169" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q169" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R169" t="s">
         <v>277</v>
       </c>
       <c r="S169" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="T169" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U169" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:21">
       <c r="A170" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B170" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C170">
         <v>2018</v>
       </c>
       <c r="D170" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E170" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="F170">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G170">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H170">
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
       </c>
+      <c r="J170">
+        <v>169</v>
+      </c>
+      <c r="K170">
+        <v>406</v>
+      </c>
+      <c r="L170">
+        <v>121</v>
+      </c>
+      <c r="M170">
+        <v>333</v>
+      </c>
+      <c r="N170">
+        <v>48</v>
+      </c>
+      <c r="O170">
+        <v>73</v>
+      </c>
       <c r="P170" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q170" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="R170" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S170" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="T170" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="U170" t="s">
         <v>277</v>
@@ -11830,93 +12460,129 @@
     </row>
     <row r="171" spans="1:21">
       <c r="A171" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B171" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C171">
         <v>2018</v>
       </c>
       <c r="D171" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E171" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="F171">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G171">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H171">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I171" t="b">
         <v>1</v>
       </c>
+      <c r="J171">
+        <v>406</v>
+      </c>
+      <c r="K171">
+        <v>169</v>
+      </c>
+      <c r="L171">
+        <v>333</v>
+      </c>
+      <c r="M171">
+        <v>121</v>
+      </c>
+      <c r="N171">
+        <v>73</v>
+      </c>
+      <c r="O171">
+        <v>48</v>
+      </c>
       <c r="P171" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q171" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="R171" t="s">
         <v>277</v>
       </c>
       <c r="S171" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="T171" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="U171" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:21">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B172" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="C172">
         <v>2018</v>
       </c>
       <c r="D172" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E172" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="F172">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G172">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="I172" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>668</v>
+      </c>
+      <c r="K172">
+        <v>573</v>
+      </c>
+      <c r="L172">
+        <v>284</v>
+      </c>
+      <c r="M172">
+        <v>287</v>
+      </c>
+      <c r="N172">
+        <v>384</v>
+      </c>
+      <c r="O172">
+        <v>286</v>
       </c>
       <c r="P172" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q172" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="R172" t="s">
         <v>277</v>
       </c>
       <c r="S172" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="T172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U172" t="s">
         <v>277</v>
@@ -11924,46 +12590,64 @@
     </row>
     <row r="173" spans="1:21">
       <c r="A173" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B173" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C173">
         <v>2018</v>
       </c>
       <c r="D173" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F173">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H173">
-        <v>32</v>
+        <v>-7</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>573</v>
+      </c>
+      <c r="K173">
+        <v>668</v>
+      </c>
+      <c r="L173">
+        <v>287</v>
+      </c>
+      <c r="M173">
+        <v>284</v>
+      </c>
+      <c r="N173">
+        <v>286</v>
+      </c>
+      <c r="O173">
+        <v>384</v>
       </c>
       <c r="P173" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q173" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R173" t="s">
         <v>277</v>
       </c>
       <c r="S173" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="T173" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="U173" t="s">
         <v>277</v>
@@ -11971,46 +12655,64 @@
     </row>
     <row r="174" spans="1:21">
       <c r="A174" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C174">
         <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E174" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F174">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G174">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H174">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I174" t="b">
         <v>1</v>
       </c>
+      <c r="J174">
+        <v>586</v>
+      </c>
+      <c r="K174">
+        <v>263</v>
+      </c>
+      <c r="L174">
+        <v>208</v>
+      </c>
+      <c r="M174">
+        <v>79</v>
+      </c>
+      <c r="N174">
+        <v>378</v>
+      </c>
+      <c r="O174">
+        <v>184</v>
+      </c>
       <c r="P174" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Q174" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R174" t="s">
         <v>277</v>
       </c>
       <c r="S174" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="T174" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U174" t="s">
         <v>277</v>
@@ -12018,46 +12720,64 @@
     </row>
     <row r="175" spans="1:21">
       <c r="A175" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B175" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C175">
         <v>2018</v>
       </c>
       <c r="D175" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E175" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="F175">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G175">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H175">
-        <v>-7</v>
+        <v>-49</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
       </c>
+      <c r="J175">
+        <v>263</v>
+      </c>
+      <c r="K175">
+        <v>586</v>
+      </c>
+      <c r="L175">
+        <v>79</v>
+      </c>
+      <c r="M175">
+        <v>208</v>
+      </c>
+      <c r="N175">
+        <v>184</v>
+      </c>
+      <c r="O175">
+        <v>378</v>
+      </c>
       <c r="P175" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R175" t="s">
         <v>277</v>
       </c>
       <c r="S175" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="T175" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U175" t="s">
         <v>277</v>
@@ -12065,46 +12785,64 @@
     </row>
     <row r="176" spans="1:21">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B176" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C176">
         <v>2018</v>
       </c>
       <c r="D176" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E176" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F176">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="G176">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H176">
-        <v>49</v>
+        <v>-16</v>
       </c>
       <c r="I176" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>423</v>
+      </c>
+      <c r="K176">
+        <v>416</v>
+      </c>
+      <c r="L176">
+        <v>146</v>
+      </c>
+      <c r="M176">
+        <v>113</v>
+      </c>
+      <c r="N176">
+        <v>277</v>
+      </c>
+      <c r="O176">
+        <v>303</v>
       </c>
       <c r="P176" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q176" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="R176" t="s">
         <v>277</v>
       </c>
       <c r="S176" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T176" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="U176" t="s">
         <v>277</v>
@@ -12112,46 +12850,64 @@
     </row>
     <row r="177" spans="1:21">
       <c r="A177" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C177">
         <v>2018</v>
       </c>
       <c r="D177" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E177" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F177">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G177">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="H177">
-        <v>-49</v>
+        <v>16</v>
       </c>
       <c r="I177" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>416</v>
+      </c>
+      <c r="K177">
+        <v>423</v>
+      </c>
+      <c r="L177">
+        <v>113</v>
+      </c>
+      <c r="M177">
+        <v>146</v>
+      </c>
+      <c r="N177">
+        <v>303</v>
+      </c>
+      <c r="O177">
+        <v>277</v>
       </c>
       <c r="P177" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q177" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="R177" t="s">
         <v>277</v>
       </c>
       <c r="S177" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="T177" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U177" t="s">
         <v>277</v>
@@ -12159,32 +12915,50 @@
     </row>
     <row r="178" spans="1:21">
       <c r="A178" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C178">
         <v>2018</v>
       </c>
       <c r="D178" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="E178" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="F178">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G178">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H178">
-        <v>-16</v>
+        <v>-2</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
       </c>
+      <c r="J178">
+        <v>515</v>
+      </c>
+      <c r="K178">
+        <v>327</v>
+      </c>
+      <c r="L178">
+        <v>200</v>
+      </c>
+      <c r="M178">
+        <v>28</v>
+      </c>
+      <c r="N178">
+        <v>315</v>
+      </c>
+      <c r="O178">
+        <v>299</v>
+      </c>
       <c r="P178" t="s">
         <v>268</v>
       </c>
@@ -12195,10 +12969,10 @@
         <v>277</v>
       </c>
       <c r="S178" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T178" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U178" t="s">
         <v>277</v>
@@ -12206,37 +12980,55 @@
     </row>
     <row r="179" spans="1:21">
       <c r="A179" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="C179">
         <v>2018</v>
       </c>
       <c r="D179" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="E179" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F179">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G179">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H179">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I179" t="b">
         <v>1</v>
       </c>
+      <c r="J179">
+        <v>327</v>
+      </c>
+      <c r="K179">
+        <v>515</v>
+      </c>
+      <c r="L179">
+        <v>28</v>
+      </c>
+      <c r="M179">
+        <v>200</v>
+      </c>
+      <c r="N179">
+        <v>299</v>
+      </c>
+      <c r="O179">
+        <v>315</v>
+      </c>
       <c r="P179" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q179" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R179" t="s">
         <v>277</v>
@@ -12253,46 +13045,64 @@
     </row>
     <row r="180" spans="1:21">
       <c r="A180" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B180" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C180">
         <v>2018</v>
       </c>
       <c r="D180" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E180" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="F180">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G180">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H180">
-        <v>-2</v>
+        <v>-27</v>
       </c>
       <c r="I180" t="b">
         <v>0</v>
       </c>
+      <c r="J180">
+        <v>248</v>
+      </c>
+      <c r="K180">
+        <v>538</v>
+      </c>
+      <c r="L180">
+        <v>88</v>
+      </c>
+      <c r="M180">
+        <v>211</v>
+      </c>
+      <c r="N180">
+        <v>160</v>
+      </c>
+      <c r="O180">
+        <v>327</v>
+      </c>
       <c r="P180" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q180" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="R180" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S180" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T180" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="U180" t="s">
         <v>277</v>
@@ -12300,93 +13110,129 @@
     </row>
     <row r="181" spans="1:21">
       <c r="A181" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="B181" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C181">
         <v>2018</v>
       </c>
       <c r="D181" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F181">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G181">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I181" t="b">
         <v>1</v>
       </c>
+      <c r="J181">
+        <v>538</v>
+      </c>
+      <c r="K181">
+        <v>248</v>
+      </c>
+      <c r="L181">
+        <v>211</v>
+      </c>
+      <c r="M181">
+        <v>88</v>
+      </c>
+      <c r="N181">
+        <v>327</v>
+      </c>
+      <c r="O181">
+        <v>160</v>
+      </c>
       <c r="P181" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q181" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="R181" t="s">
         <v>277</v>
       </c>
       <c r="S181" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="T181" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="U181" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:21">
       <c r="A182" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B182" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C182">
         <v>2018</v>
       </c>
       <c r="D182" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E182" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F182">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="G182">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H182">
-        <v>-27</v>
+        <v>11</v>
       </c>
       <c r="I182" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>528</v>
+      </c>
+      <c r="K182">
+        <v>471</v>
+      </c>
+      <c r="L182">
+        <v>200</v>
+      </c>
+      <c r="M182">
+        <v>163</v>
+      </c>
+      <c r="N182">
+        <v>328</v>
+      </c>
+      <c r="O182">
+        <v>308</v>
       </c>
       <c r="P182" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q182" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="R182" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S182" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="T182" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="U182" t="s">
         <v>277</v>
@@ -12394,93 +13240,129 @@
     </row>
     <row r="183" spans="1:21">
       <c r="A183" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B183" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C183">
         <v>2018</v>
       </c>
       <c r="D183" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F183">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G183">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H183">
-        <v>27</v>
+        <v>-11</v>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>471</v>
+      </c>
+      <c r="K183">
+        <v>528</v>
+      </c>
+      <c r="L183">
+        <v>163</v>
+      </c>
+      <c r="M183">
+        <v>200</v>
+      </c>
+      <c r="N183">
+        <v>308</v>
+      </c>
+      <c r="O183">
+        <v>328</v>
       </c>
       <c r="P183" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q183" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="R183" t="s">
         <v>277</v>
       </c>
       <c r="S183" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="T183" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="U183" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:21">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B184" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="C184">
         <v>2018</v>
       </c>
       <c r="D184" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E184" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F184">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G184">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H184">
-        <v>11</v>
+        <v>-26</v>
       </c>
       <c r="I184" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>326</v>
+      </c>
+      <c r="K184">
+        <v>427</v>
+      </c>
+      <c r="L184">
+        <v>77</v>
+      </c>
+      <c r="M184">
+        <v>257</v>
+      </c>
+      <c r="N184">
+        <v>249</v>
+      </c>
+      <c r="O184">
+        <v>170</v>
       </c>
       <c r="P184" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q184" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R184" t="s">
         <v>277</v>
       </c>
       <c r="S184" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="T184" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="U184" t="s">
         <v>277</v>
@@ -12488,46 +13370,64 @@
     </row>
     <row r="185" spans="1:21">
       <c r="A185" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B185" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C185">
         <v>2018</v>
       </c>
       <c r="D185" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E185" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F185">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G185">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H185">
-        <v>-11</v>
+        <v>26</v>
       </c>
       <c r="I185" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>427</v>
+      </c>
+      <c r="K185">
+        <v>326</v>
+      </c>
+      <c r="L185">
+        <v>257</v>
+      </c>
+      <c r="M185">
+        <v>77</v>
+      </c>
+      <c r="N185">
+        <v>170</v>
+      </c>
+      <c r="O185">
+        <v>249</v>
       </c>
       <c r="P185" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Q185" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="R185" t="s">
         <v>277</v>
       </c>
       <c r="S185" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="T185" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U185" t="s">
         <v>277</v>
@@ -12535,34 +13435,52 @@
     </row>
     <row r="186" spans="1:21">
       <c r="A186" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C186">
         <v>2018</v>
       </c>
       <c r="D186" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E186" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="F186">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H186">
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="I186" t="b">
         <v>0</v>
       </c>
+      <c r="J186">
+        <v>251</v>
+      </c>
+      <c r="K186">
+        <v>413</v>
+      </c>
+      <c r="L186">
+        <v>33</v>
+      </c>
+      <c r="M186">
+        <v>205</v>
+      </c>
+      <c r="N186">
+        <v>218</v>
+      </c>
+      <c r="O186">
+        <v>208</v>
+      </c>
       <c r="P186" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q186" t="s">
         <v>270</v>
@@ -12571,10 +13489,10 @@
         <v>277</v>
       </c>
       <c r="S186" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="T186" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="U186" t="s">
         <v>277</v>
@@ -12582,43 +13500,61 @@
     </row>
     <row r="187" spans="1:21">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="B187" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="C187">
         <v>2018</v>
       </c>
       <c r="D187" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="E187" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F187">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G187">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I187" t="b">
         <v>1</v>
       </c>
+      <c r="J187">
+        <v>413</v>
+      </c>
+      <c r="K187">
+        <v>251</v>
+      </c>
+      <c r="L187">
+        <v>205</v>
+      </c>
+      <c r="M187">
+        <v>33</v>
+      </c>
+      <c r="N187">
+        <v>208</v>
+      </c>
+      <c r="O187">
+        <v>218</v>
+      </c>
       <c r="P187" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q187" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="R187" t="s">
         <v>277</v>
       </c>
       <c r="S187" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="T187" t="s">
         <v>270</v>
@@ -12629,187 +13565,259 @@
     </row>
     <row r="188" spans="1:21">
       <c r="A188" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B188" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C188">
         <v>2018</v>
       </c>
       <c r="D188" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E188" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G188">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H188">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="I188" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>285</v>
+      </c>
+      <c r="K188">
+        <v>499</v>
+      </c>
+      <c r="L188">
+        <v>85</v>
+      </c>
+      <c r="M188">
+        <v>224</v>
+      </c>
+      <c r="N188">
+        <v>200</v>
+      </c>
+      <c r="O188">
+        <v>275</v>
       </c>
       <c r="P188" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q188" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R188" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S188" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="T188" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="U188" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:21">
       <c r="A189" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B189" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C189">
         <v>2018</v>
       </c>
       <c r="D189" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E189" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F189">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G189">
+        <v>16</v>
+      </c>
+      <c r="H189">
+        <v>-3</v>
+      </c>
+      <c r="I189" t="b">
         <v>0</v>
       </c>
-      <c r="H189">
-        <v>28</v>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
+      <c r="J189">
+        <v>499</v>
+      </c>
+      <c r="K189">
+        <v>285</v>
+      </c>
+      <c r="L189">
+        <v>224</v>
+      </c>
+      <c r="M189">
+        <v>85</v>
+      </c>
+      <c r="N189">
+        <v>275</v>
+      </c>
+      <c r="O189">
+        <v>200</v>
       </c>
       <c r="P189" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q189" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="R189" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S189" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="T189" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U189" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:21">
       <c r="A190" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B190" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C190">
         <v>2018</v>
       </c>
       <c r="D190" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="E190" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F190">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G190">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I190" t="b">
         <v>1</v>
       </c>
+      <c r="J190">
+        <v>462</v>
+      </c>
+      <c r="K190">
+        <v>443</v>
+      </c>
+      <c r="L190">
+        <v>256</v>
+      </c>
+      <c r="M190">
+        <v>224</v>
+      </c>
+      <c r="N190">
+        <v>206</v>
+      </c>
+      <c r="O190">
+        <v>219</v>
+      </c>
       <c r="P190" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q190" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R190" t="s">
         <v>278</v>
       </c>
       <c r="S190" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="T190" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="U190" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:21">
       <c r="A191" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B191" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C191">
         <v>2018</v>
       </c>
       <c r="D191" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="E191" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F191">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G191">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I191" t="b">
         <v>0</v>
       </c>
+      <c r="J191">
+        <v>443</v>
+      </c>
+      <c r="K191">
+        <v>462</v>
+      </c>
+      <c r="L191">
+        <v>224</v>
+      </c>
+      <c r="M191">
+        <v>256</v>
+      </c>
+      <c r="N191">
+        <v>219</v>
+      </c>
+      <c r="O191">
+        <v>206</v>
+      </c>
       <c r="P191" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q191" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="R191" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S191" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="T191" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U191" t="s">
         <v>278</v>
@@ -12817,46 +13825,64 @@
     </row>
     <row r="192" spans="1:21">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="B192" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="C192">
         <v>2018</v>
       </c>
       <c r="D192" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E192" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F192">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G192">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I192" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>331</v>
+      </c>
+      <c r="K192">
+        <v>203</v>
+      </c>
+      <c r="L192">
+        <v>159</v>
+      </c>
+      <c r="M192">
+        <v>37</v>
+      </c>
+      <c r="N192">
+        <v>172</v>
+      </c>
+      <c r="O192">
+        <v>166</v>
       </c>
       <c r="P192" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q192" t="s">
         <v>270</v>
       </c>
       <c r="R192" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S192" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T192" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="U192" t="s">
         <v>277</v>
@@ -12864,81 +13890,117 @@
     </row>
     <row r="193" spans="1:21">
       <c r="A193" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B193" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="C193">
         <v>2018</v>
       </c>
       <c r="D193" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E193" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F193">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G193">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H193">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I193" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>203</v>
+      </c>
+      <c r="K193">
+        <v>331</v>
+      </c>
+      <c r="L193">
+        <v>37</v>
+      </c>
+      <c r="M193">
+        <v>159</v>
+      </c>
+      <c r="N193">
+        <v>166</v>
+      </c>
+      <c r="O193">
+        <v>172</v>
       </c>
       <c r="P193" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q193" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="R193" t="s">
         <v>277</v>
       </c>
       <c r="S193" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="T193" t="s">
         <v>270</v>
       </c>
       <c r="U193" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="1:21">
       <c r="A194" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B194" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="C194">
         <v>2018</v>
       </c>
       <c r="D194" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E194" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F194">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G194">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H194">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="I194" t="b">
         <v>0</v>
       </c>
+      <c r="J194">
+        <v>637</v>
+      </c>
+      <c r="K194">
+        <v>502</v>
+      </c>
+      <c r="L194">
+        <v>264</v>
+      </c>
+      <c r="M194">
+        <v>169</v>
+      </c>
+      <c r="N194">
+        <v>373</v>
+      </c>
+      <c r="O194">
+        <v>333</v>
+      </c>
       <c r="P194" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q194" t="s">
         <v>270</v>
@@ -12947,10 +14009,10 @@
         <v>277</v>
       </c>
       <c r="S194" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="T194" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U194" t="s">
         <v>277</v>
@@ -12958,43 +14020,61 @@
     </row>
     <row r="195" spans="1:21">
       <c r="A195" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B195" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C195">
         <v>2018</v>
       </c>
       <c r="D195" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E195" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F195">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G195">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I195" t="b">
         <v>1</v>
       </c>
+      <c r="J195">
+        <v>502</v>
+      </c>
+      <c r="K195">
+        <v>637</v>
+      </c>
+      <c r="L195">
+        <v>169</v>
+      </c>
+      <c r="M195">
+        <v>264</v>
+      </c>
+      <c r="N195">
+        <v>333</v>
+      </c>
+      <c r="O195">
+        <v>373</v>
+      </c>
       <c r="P195" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q195" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R195" t="s">
         <v>277</v>
       </c>
       <c r="S195" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="T195" t="s">
         <v>270</v>
@@ -13005,46 +14085,64 @@
     </row>
     <row r="196" spans="1:21">
       <c r="A196" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="B196" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C196">
         <v>2018</v>
       </c>
       <c r="D196" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="E196" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F196">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G196">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H196">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="I196" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>322</v>
+      </c>
+      <c r="K196">
+        <v>393</v>
+      </c>
+      <c r="L196">
+        <v>81</v>
+      </c>
+      <c r="M196">
+        <v>91</v>
+      </c>
+      <c r="N196">
+        <v>241</v>
+      </c>
+      <c r="O196">
+        <v>302</v>
       </c>
       <c r="P196" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R196" t="s">
         <v>277</v>
       </c>
       <c r="S196" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="T196" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U196" t="s">
         <v>277</v>
@@ -13052,46 +14150,64 @@
     </row>
     <row r="197" spans="1:21">
       <c r="A197" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B197" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="C197">
         <v>2018</v>
       </c>
       <c r="D197" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="E197" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F197">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G197">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H197">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="I197" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>393</v>
+      </c>
+      <c r="K197">
+        <v>322</v>
+      </c>
+      <c r="L197">
+        <v>91</v>
+      </c>
+      <c r="M197">
+        <v>81</v>
+      </c>
+      <c r="N197">
+        <v>302</v>
+      </c>
+      <c r="O197">
+        <v>241</v>
       </c>
       <c r="P197" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q197" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R197" t="s">
         <v>277</v>
       </c>
       <c r="S197" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="T197" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U197" t="s">
         <v>277</v>
@@ -13099,34 +14215,52 @@
     </row>
     <row r="198" spans="1:21">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B198" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C198">
         <v>2018</v>
       </c>
       <c r="D198" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E198" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F198">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G198">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H198">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I198" t="b">
         <v>1</v>
       </c>
+      <c r="J198">
+        <v>541</v>
+      </c>
+      <c r="K198">
+        <v>273</v>
+      </c>
+      <c r="L198">
+        <v>401</v>
+      </c>
+      <c r="M198">
+        <v>134</v>
+      </c>
+      <c r="N198">
+        <v>140</v>
+      </c>
+      <c r="O198">
+        <v>139</v>
+      </c>
       <c r="P198" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q198" t="s">
         <v>269</v>
@@ -13135,10 +14269,10 @@
         <v>277</v>
       </c>
       <c r="S198" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T198" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="U198" t="s">
         <v>277</v>
@@ -13146,43 +14280,61 @@
     </row>
     <row r="199" spans="1:21">
       <c r="A199" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B199" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C199">
         <v>2018</v>
       </c>
       <c r="D199" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E199" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F199">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G199">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H199">
-        <v>-11</v>
+        <v>-39</v>
       </c>
       <c r="I199" t="b">
         <v>0</v>
       </c>
+      <c r="J199">
+        <v>273</v>
+      </c>
+      <c r="K199">
+        <v>541</v>
+      </c>
+      <c r="L199">
+        <v>134</v>
+      </c>
+      <c r="M199">
+        <v>401</v>
+      </c>
+      <c r="N199">
+        <v>139</v>
+      </c>
+      <c r="O199">
+        <v>140</v>
+      </c>
       <c r="P199" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q199" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="R199" t="s">
         <v>277</v>
       </c>
       <c r="S199" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="T199" t="s">
         <v>269</v>
@@ -13193,46 +14345,64 @@
     </row>
     <row r="200" spans="1:21">
       <c r="A200" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B200" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C200">
         <v>2018</v>
       </c>
       <c r="D200" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="F200">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G200">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H200">
-        <v>39</v>
+        <v>-1</v>
       </c>
       <c r="I200" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>344</v>
+      </c>
+      <c r="K200">
+        <v>208</v>
+      </c>
+      <c r="L200">
+        <v>208</v>
+      </c>
+      <c r="M200">
+        <v>103</v>
+      </c>
+      <c r="N200">
+        <v>136</v>
+      </c>
+      <c r="O200">
+        <v>105</v>
       </c>
       <c r="P200" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q200" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="R200" t="s">
         <v>277</v>
       </c>
       <c r="S200" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="T200" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="U200" t="s">
         <v>277</v>
@@ -13240,46 +14410,64 @@
     </row>
     <row r="201" spans="1:21">
       <c r="A201" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="B201" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="C201">
         <v>2018</v>
       </c>
       <c r="D201" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E201" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F201">
+        <v>14</v>
+      </c>
+      <c r="G201">
         <v>13</v>
       </c>
-      <c r="G201">
-        <v>52</v>
-      </c>
       <c r="H201">
-        <v>-39</v>
+        <v>1</v>
       </c>
       <c r="I201" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>208</v>
+      </c>
+      <c r="K201">
+        <v>344</v>
+      </c>
+      <c r="L201">
+        <v>103</v>
+      </c>
+      <c r="M201">
+        <v>208</v>
+      </c>
+      <c r="N201">
+        <v>105</v>
+      </c>
+      <c r="O201">
+        <v>136</v>
       </c>
       <c r="P201" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q201" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="R201" t="s">
         <v>277</v>
       </c>
       <c r="S201" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="T201" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="U201" t="s">
         <v>277</v>
@@ -13287,46 +14475,64 @@
     </row>
     <row r="202" spans="1:21">
       <c r="A202" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B202" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C202">
         <v>2018</v>
       </c>
       <c r="D202" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="E202" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="F202">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G202">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H202">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I202" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>355</v>
+      </c>
+      <c r="K202">
+        <v>284</v>
+      </c>
+      <c r="L202">
+        <v>178</v>
+      </c>
+      <c r="M202">
+        <v>72</v>
+      </c>
+      <c r="N202">
+        <v>177</v>
+      </c>
+      <c r="O202">
+        <v>212</v>
       </c>
       <c r="P202" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q202" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="R202" t="s">
         <v>277</v>
       </c>
       <c r="S202" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="T202" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U202" t="s">
         <v>277</v>
@@ -13334,46 +14540,64 @@
     </row>
     <row r="203" spans="1:21">
       <c r="A203" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="C203">
         <v>2018</v>
       </c>
       <c r="D203" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="E203" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F203">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G203">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="I203" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>284</v>
+      </c>
+      <c r="K203">
+        <v>355</v>
+      </c>
+      <c r="L203">
+        <v>72</v>
+      </c>
+      <c r="M203">
+        <v>178</v>
+      </c>
+      <c r="N203">
+        <v>212</v>
+      </c>
+      <c r="O203">
+        <v>177</v>
       </c>
       <c r="P203" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q203" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="R203" t="s">
         <v>277</v>
       </c>
       <c r="S203" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="T203" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="U203" t="s">
         <v>277</v>
@@ -13381,93 +14605,129 @@
     </row>
     <row r="204" spans="1:21">
       <c r="A204" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B204" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C204">
         <v>2018</v>
       </c>
       <c r="D204" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E204" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F204">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G204">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H204">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I204" t="b">
         <v>1</v>
       </c>
+      <c r="J204">
+        <v>555</v>
+      </c>
+      <c r="K204">
+        <v>250</v>
+      </c>
+      <c r="L204">
+        <v>161</v>
+      </c>
+      <c r="M204">
+        <v>130</v>
+      </c>
+      <c r="N204">
+        <v>394</v>
+      </c>
+      <c r="O204">
+        <v>120</v>
+      </c>
       <c r="P204" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="Q204" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="R204" t="s">
         <v>277</v>
       </c>
       <c r="S204" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="T204" t="s">
         <v>270</v>
       </c>
       <c r="U204" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:21">
       <c r="A205" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B205" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C205">
         <v>2018</v>
       </c>
       <c r="D205" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E205" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="F205">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G205">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H205">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="I205" t="b">
         <v>0</v>
       </c>
+      <c r="J205">
+        <v>250</v>
+      </c>
+      <c r="K205">
+        <v>555</v>
+      </c>
+      <c r="L205">
+        <v>130</v>
+      </c>
+      <c r="M205">
+        <v>161</v>
+      </c>
+      <c r="N205">
+        <v>120</v>
+      </c>
+      <c r="O205">
+        <v>394</v>
+      </c>
       <c r="P205" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q205" t="s">
         <v>270</v>
       </c>
       <c r="R205" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S205" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="T205" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U205" t="s">
         <v>277</v>
@@ -13475,93 +14735,129 @@
     </row>
     <row r="206" spans="1:21">
       <c r="A206" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B206" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C206">
         <v>2018</v>
       </c>
       <c r="D206" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E206" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F206">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G206">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H206">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I206" t="b">
         <v>1</v>
       </c>
+      <c r="J206">
+        <v>364</v>
+      </c>
+      <c r="K206">
+        <v>444</v>
+      </c>
+      <c r="L206">
+        <v>113</v>
+      </c>
+      <c r="M206">
+        <v>129</v>
+      </c>
+      <c r="N206">
+        <v>251</v>
+      </c>
+      <c r="O206">
+        <v>315</v>
+      </c>
       <c r="P206" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q206" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R206" t="s">
         <v>277</v>
       </c>
       <c r="S206" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="T206" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="U206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:21">
       <c r="A207" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B207" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C207">
         <v>2018</v>
       </c>
       <c r="D207" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="F207">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G207">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H207">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="I207" t="b">
         <v>0</v>
       </c>
+      <c r="J207">
+        <v>444</v>
+      </c>
+      <c r="K207">
+        <v>364</v>
+      </c>
+      <c r="L207">
+        <v>129</v>
+      </c>
+      <c r="M207">
+        <v>113</v>
+      </c>
+      <c r="N207">
+        <v>315</v>
+      </c>
+      <c r="O207">
+        <v>251</v>
+      </c>
       <c r="P207" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q207" t="s">
+        <v>273</v>
+      </c>
+      <c r="R207" t="s">
+        <v>277</v>
+      </c>
+      <c r="S207" t="s">
+        <v>267</v>
+      </c>
+      <c r="T207" t="s">
         <v>270</v>
-      </c>
-      <c r="R207" t="s">
-        <v>278</v>
-      </c>
-      <c r="S207" t="s">
-        <v>258</v>
-      </c>
-      <c r="T207" t="s">
-        <v>269</v>
       </c>
       <c r="U207" t="s">
         <v>277</v>
@@ -13569,46 +14865,64 @@
     </row>
     <row r="208" spans="1:21">
       <c r="A208" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B208" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C208">
         <v>2018</v>
       </c>
       <c r="D208" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E208" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F208">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G208">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H208">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="I208" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>342</v>
+      </c>
+      <c r="K208">
+        <v>199</v>
+      </c>
+      <c r="L208">
+        <v>190</v>
+      </c>
+      <c r="M208">
+        <v>-15</v>
+      </c>
+      <c r="N208">
+        <v>152</v>
+      </c>
+      <c r="O208">
+        <v>214</v>
       </c>
       <c r="P208" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q208" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R208" t="s">
         <v>277</v>
       </c>
       <c r="S208" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="T208" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="U208" t="s">
         <v>277</v>
@@ -13616,46 +14930,64 @@
     </row>
     <row r="209" spans="1:21">
       <c r="A209" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B209" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C209">
         <v>2018</v>
       </c>
       <c r="D209" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E209" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F209">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G209">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H209">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="I209" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>199</v>
+      </c>
+      <c r="K209">
+        <v>342</v>
+      </c>
+      <c r="L209">
+        <v>-15</v>
+      </c>
+      <c r="M209">
+        <v>190</v>
+      </c>
+      <c r="N209">
+        <v>214</v>
+      </c>
+      <c r="O209">
+        <v>152</v>
       </c>
       <c r="P209" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q209" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="R209" t="s">
         <v>277</v>
       </c>
       <c r="S209" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="T209" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U209" t="s">
         <v>277</v>
@@ -13663,37 +14995,55 @@
     </row>
     <row r="210" spans="1:21">
       <c r="A210" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B210" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C210">
         <v>2018</v>
       </c>
       <c r="D210" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F210">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G210">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H210">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="I210" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>297</v>
+      </c>
+      <c r="K210">
+        <v>407</v>
+      </c>
+      <c r="L210">
+        <v>176</v>
+      </c>
+      <c r="M210">
+        <v>161</v>
+      </c>
+      <c r="N210">
+        <v>121</v>
+      </c>
+      <c r="O210">
+        <v>246</v>
       </c>
       <c r="P210" t="s">
         <v>258</v>
       </c>
       <c r="Q210" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R210" t="s">
         <v>277</v>
@@ -13702,7 +15052,7 @@
         <v>267</v>
       </c>
       <c r="T210" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U210" t="s">
         <v>277</v>
@@ -13710,37 +15060,55 @@
     </row>
     <row r="211" spans="1:21">
       <c r="A211" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B211" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C211">
         <v>2018</v>
       </c>
       <c r="D211" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E211" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211">
         <v>27</v>
       </c>
-      <c r="G211">
-        <v>22</v>
-      </c>
       <c r="H211">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="I211" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>407</v>
+      </c>
+      <c r="K211">
+        <v>297</v>
+      </c>
+      <c r="L211">
+        <v>161</v>
+      </c>
+      <c r="M211">
+        <v>176</v>
+      </c>
+      <c r="N211">
+        <v>246</v>
+      </c>
+      <c r="O211">
+        <v>121</v>
       </c>
       <c r="P211" t="s">
         <v>267</v>
       </c>
       <c r="Q211" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R211" t="s">
         <v>277</v>
@@ -13749,7 +15117,7 @@
         <v>258</v>
       </c>
       <c r="T211" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U211" t="s">
         <v>277</v>
@@ -13757,46 +15125,64 @@
     </row>
     <row r="212" spans="1:21">
       <c r="A212" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B212" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C212">
         <v>2018</v>
       </c>
       <c r="D212" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="E212" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="F212">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G212">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H212">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I212" t="b">
         <v>1</v>
       </c>
+      <c r="J212">
+        <v>482</v>
+      </c>
+      <c r="K212">
+        <v>443</v>
+      </c>
+      <c r="L212">
+        <v>135</v>
+      </c>
+      <c r="M212">
+        <v>148</v>
+      </c>
+      <c r="N212">
+        <v>347</v>
+      </c>
+      <c r="O212">
+        <v>295</v>
+      </c>
       <c r="P212" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q212" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="R212" t="s">
         <v>277</v>
       </c>
       <c r="S212" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="T212" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U212" t="s">
         <v>277</v>
@@ -13804,142 +15190,66 @@
     </row>
     <row r="213" spans="1:21">
       <c r="A213" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="B213" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C213">
         <v>2018</v>
       </c>
       <c r="D213" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F213">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G213">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H213">
-        <v>-5</v>
+        <v>-28</v>
       </c>
       <c r="I213" t="b">
         <v>0</v>
       </c>
+      <c r="J213">
+        <v>443</v>
+      </c>
+      <c r="K213">
+        <v>482</v>
+      </c>
+      <c r="L213">
+        <v>148</v>
+      </c>
+      <c r="M213">
+        <v>135</v>
+      </c>
+      <c r="N213">
+        <v>295</v>
+      </c>
+      <c r="O213">
+        <v>347</v>
+      </c>
       <c r="P213" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="Q213" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R213" t="s">
         <v>277</v>
       </c>
       <c r="S213" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="T213" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="U213" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21">
-      <c r="A214" t="s">
-        <v>29</v>
-      </c>
-      <c r="B214" t="s">
-        <v>130</v>
-      </c>
-      <c r="C214">
-        <v>2018</v>
-      </c>
-      <c r="D214" t="s">
-        <v>234</v>
-      </c>
-      <c r="E214" t="s">
-        <v>21</v>
-      </c>
-      <c r="F214">
-        <v>44</v>
-      </c>
-      <c r="G214">
-        <v>16</v>
-      </c>
-      <c r="H214">
-        <v>28</v>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="P214" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>276</v>
-      </c>
-      <c r="R214" t="s">
-        <v>277</v>
-      </c>
-      <c r="S214" t="s">
-        <v>258</v>
-      </c>
-      <c r="T214" t="s">
-        <v>269</v>
-      </c>
-      <c r="U214" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21">
-      <c r="A215" t="s">
-        <v>21</v>
-      </c>
-      <c r="B215" t="s">
-        <v>127</v>
-      </c>
-      <c r="C215">
-        <v>2018</v>
-      </c>
-      <c r="D215" t="s">
-        <v>234</v>
-      </c>
-      <c r="E215" t="s">
-        <v>29</v>
-      </c>
-      <c r="F215">
-        <v>16</v>
-      </c>
-      <c r="G215">
-        <v>44</v>
-      </c>
-      <c r="H215">
-        <v>-28</v>
-      </c>
-      <c r="I215" t="b">
-        <v>0</v>
-      </c>
-      <c r="P215" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>269</v>
-      </c>
-      <c r="R215" t="s">
-        <v>277</v>
-      </c>
-      <c r="S215" t="s">
-        <v>263</v>
-      </c>
-      <c r="T215" t="s">
-        <v>276</v>
-      </c>
-      <c r="U215" t="s">
         <v>277</v>
       </c>
     </row>
@@ -14164,64 +15474,190 @@
         <v>14</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>11</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I2" t="s">
         <v>277</v>
       </c>
       <c r="J2">
-        <v>24.91666666666667</v>
+        <v>27.18181818181818</v>
       </c>
       <c r="K2">
-        <v>17.1594571504162</v>
+        <v>16.0051128194598</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>12.25</v>
+        <v>13</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>34.75</v>
+        <v>35.5</v>
       </c>
       <c r="P2">
         <v>56</v>
       </c>
       <c r="Q2">
-        <v>22.33333333333333</v>
+        <v>24.36363636363636</v>
       </c>
       <c r="R2">
-        <v>16.49977042999157</v>
+        <v>15.65421813616207</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="U2">
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="V2">
-        <v>34.25</v>
+        <v>34.5</v>
       </c>
       <c r="W2">
         <v>52</v>
+      </c>
+      <c r="X2">
+        <v>404.8181818181818</v>
+      </c>
+      <c r="Y2">
+        <v>125.4239356596804</v>
+      </c>
+      <c r="Z2">
+        <v>169</v>
+      </c>
+      <c r="AA2">
+        <v>313.5</v>
+      </c>
+      <c r="AB2">
+        <v>416</v>
+      </c>
+      <c r="AC2">
+        <v>505.5</v>
+      </c>
+      <c r="AD2">
+        <v>563</v>
+      </c>
+      <c r="AE2">
+        <v>366.6363636363636</v>
+      </c>
+      <c r="AF2">
+        <v>105.2485370228705</v>
+      </c>
+      <c r="AG2">
+        <v>208</v>
+      </c>
+      <c r="AH2">
+        <v>266</v>
+      </c>
+      <c r="AI2">
+        <v>392</v>
+      </c>
+      <c r="AJ2">
+        <v>433</v>
+      </c>
+      <c r="AK2">
+        <v>541</v>
+      </c>
+      <c r="AL2">
+        <v>171</v>
+      </c>
+      <c r="AM2">
+        <v>44.60044842823893</v>
+      </c>
+      <c r="AN2">
+        <v>113</v>
+      </c>
+      <c r="AO2">
+        <v>128.5</v>
+      </c>
+      <c r="AP2">
+        <v>201</v>
+      </c>
+      <c r="AQ2">
+        <v>207</v>
+      </c>
+      <c r="AR2">
+        <v>224</v>
+      </c>
+      <c r="AS2">
+        <v>184.3636363636364</v>
+      </c>
+      <c r="AT2">
+        <v>118.0070105775693</v>
+      </c>
+      <c r="AU2">
+        <v>33</v>
+      </c>
+      <c r="AV2">
+        <v>95.5</v>
+      </c>
+      <c r="AW2">
+        <v>148</v>
+      </c>
+      <c r="AX2">
+        <v>258</v>
+      </c>
+      <c r="AY2">
+        <v>401</v>
+      </c>
+      <c r="AZ2">
+        <v>233.8181818181818</v>
+      </c>
+      <c r="BA2">
+        <v>124.9902541655294</v>
+      </c>
+      <c r="BB2">
+        <v>48</v>
+      </c>
+      <c r="BC2">
+        <v>137.5</v>
+      </c>
+      <c r="BD2">
+        <v>219</v>
+      </c>
+      <c r="BE2">
+        <v>327.5</v>
+      </c>
+      <c r="BF2">
+        <v>440</v>
+      </c>
+      <c r="BG2">
+        <v>182.2727272727273</v>
+      </c>
+      <c r="BH2">
+        <v>69.61334772741635</v>
+      </c>
+      <c r="BI2">
+        <v>73</v>
+      </c>
+      <c r="BJ2">
+        <v>136</v>
+      </c>
+      <c r="BK2">
+        <v>171</v>
+      </c>
+      <c r="BL2">
+        <v>223</v>
+      </c>
+      <c r="BM2">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -14251,10 +15687,10 @@
         <v>277</v>
       </c>
       <c r="J3">
-        <v>23.55555555555556</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="K3">
-        <v>10.01387925719987</v>
+        <v>9.997221836312548</v>
       </c>
       <c r="L3">
         <v>6</v>
@@ -14291,6 +15727,132 @@
       </c>
       <c r="W3">
         <v>63</v>
+      </c>
+      <c r="X3">
+        <v>334.4444444444445</v>
+      </c>
+      <c r="Y3">
+        <v>69.15401490714605</v>
+      </c>
+      <c r="Z3">
+        <v>199</v>
+      </c>
+      <c r="AA3">
+        <v>322</v>
+      </c>
+      <c r="AB3">
+        <v>331</v>
+      </c>
+      <c r="AC3">
+        <v>392</v>
+      </c>
+      <c r="AD3">
+        <v>407</v>
+      </c>
+      <c r="AE3">
+        <v>349.3333333333333</v>
+      </c>
+      <c r="AF3">
+        <v>129.4401406056097</v>
+      </c>
+      <c r="AG3">
+        <v>169</v>
+      </c>
+      <c r="AH3">
+        <v>283</v>
+      </c>
+      <c r="AI3">
+        <v>342</v>
+      </c>
+      <c r="AJ3">
+        <v>427</v>
+      </c>
+      <c r="AK3">
+        <v>586</v>
+      </c>
+      <c r="AL3">
+        <v>138.6666666666667</v>
+      </c>
+      <c r="AM3">
+        <v>105.0951949424901</v>
+      </c>
+      <c r="AN3">
+        <v>-15</v>
+      </c>
+      <c r="AO3">
+        <v>79</v>
+      </c>
+      <c r="AP3">
+        <v>113</v>
+      </c>
+      <c r="AQ3">
+        <v>161</v>
+      </c>
+      <c r="AR3">
+        <v>333</v>
+      </c>
+      <c r="AS3">
+        <v>157.2222222222222</v>
+      </c>
+      <c r="AT3">
+        <v>68.27110988144578</v>
+      </c>
+      <c r="AU3">
+        <v>37</v>
+      </c>
+      <c r="AV3">
+        <v>121</v>
+      </c>
+      <c r="AW3">
+        <v>176</v>
+      </c>
+      <c r="AX3">
+        <v>206</v>
+      </c>
+      <c r="AY3">
+        <v>257</v>
+      </c>
+      <c r="AZ3">
+        <v>195.7777777777778</v>
+      </c>
+      <c r="BA3">
+        <v>61.8744248009179</v>
+      </c>
+      <c r="BB3">
+        <v>73</v>
+      </c>
+      <c r="BC3">
+        <v>172</v>
+      </c>
+      <c r="BD3">
+        <v>214</v>
+      </c>
+      <c r="BE3">
+        <v>246</v>
+      </c>
+      <c r="BF3">
+        <v>251</v>
+      </c>
+      <c r="BG3">
+        <v>192.1111111111111</v>
+      </c>
+      <c r="BH3">
+        <v>113.7908656751987</v>
+      </c>
+      <c r="BI3">
+        <v>48</v>
+      </c>
+      <c r="BJ3">
+        <v>121</v>
+      </c>
+      <c r="BK3">
+        <v>166</v>
+      </c>
+      <c r="BL3">
+        <v>302</v>
+      </c>
+      <c r="BM3">
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -14361,6 +15923,132 @@
       <c r="W4">
         <v>52</v>
       </c>
+      <c r="X4">
+        <v>432.6666666666667</v>
+      </c>
+      <c r="Y4">
+        <v>69.1452577308572</v>
+      </c>
+      <c r="Z4">
+        <v>313</v>
+      </c>
+      <c r="AA4">
+        <v>407.25</v>
+      </c>
+      <c r="AB4">
+        <v>456</v>
+      </c>
+      <c r="AC4">
+        <v>471.75</v>
+      </c>
+      <c r="AD4">
+        <v>503</v>
+      </c>
+      <c r="AE4">
+        <v>377.5</v>
+      </c>
+      <c r="AF4">
+        <v>116.9542645652565</v>
+      </c>
+      <c r="AG4">
+        <v>226</v>
+      </c>
+      <c r="AH4">
+        <v>305.25</v>
+      </c>
+      <c r="AI4">
+        <v>374</v>
+      </c>
+      <c r="AJ4">
+        <v>433</v>
+      </c>
+      <c r="AK4">
+        <v>556</v>
+      </c>
+      <c r="AL4">
+        <v>161.8333333333333</v>
+      </c>
+      <c r="AM4">
+        <v>83.85324481894942</v>
+      </c>
+      <c r="AN4">
+        <v>62</v>
+      </c>
+      <c r="AO4">
+        <v>107.25</v>
+      </c>
+      <c r="AP4">
+        <v>144</v>
+      </c>
+      <c r="AQ4">
+        <v>219</v>
+      </c>
+      <c r="AR4">
+        <v>282</v>
+      </c>
+      <c r="AS4">
+        <v>135.3333333333333</v>
+      </c>
+      <c r="AT4">
+        <v>66.44596802415228</v>
+      </c>
+      <c r="AU4">
+        <v>58</v>
+      </c>
+      <c r="AV4">
+        <v>96</v>
+      </c>
+      <c r="AW4">
+        <v>116</v>
+      </c>
+      <c r="AX4">
+        <v>178.75</v>
+      </c>
+      <c r="AY4">
+        <v>233</v>
+      </c>
+      <c r="AZ4">
+        <v>270.8333333333333</v>
+      </c>
+      <c r="BA4">
+        <v>70.66658805027073</v>
+      </c>
+      <c r="BB4">
+        <v>193</v>
+      </c>
+      <c r="BC4">
+        <v>221.5</v>
+      </c>
+      <c r="BD4">
+        <v>254</v>
+      </c>
+      <c r="BE4">
+        <v>318.75</v>
+      </c>
+      <c r="BF4">
+        <v>373</v>
+      </c>
+      <c r="BG4">
+        <v>242.1666666666667</v>
+      </c>
+      <c r="BH4">
+        <v>70.74296195853455</v>
+      </c>
+      <c r="BI4">
+        <v>168</v>
+      </c>
+      <c r="BJ4">
+        <v>188</v>
+      </c>
+      <c r="BK4">
+        <v>239.5</v>
+      </c>
+      <c r="BL4">
+        <v>267</v>
+      </c>
+      <c r="BM4">
+        <v>359</v>
+      </c>
     </row>
     <row r="5" spans="1:65">
       <c r="A5" s="1"/>
@@ -14410,16 +16098,16 @@
         <v>63</v>
       </c>
       <c r="Q5">
-        <v>28.33333333333333</v>
+        <v>28.5</v>
       </c>
       <c r="R5">
-        <v>10.96551066947747</v>
+        <v>10.87532653637247</v>
       </c>
       <c r="S5">
         <v>13</v>
       </c>
       <c r="T5">
-        <v>20.25</v>
+        <v>21.75</v>
       </c>
       <c r="U5">
         <v>28</v>
@@ -14429,6 +16117,132 @@
       </c>
       <c r="W5">
         <v>45</v>
+      </c>
+      <c r="X5">
+        <v>455.3333333333333</v>
+      </c>
+      <c r="Y5">
+        <v>133.6381364549488</v>
+      </c>
+      <c r="Z5">
+        <v>251</v>
+      </c>
+      <c r="AA5">
+        <v>330.75</v>
+      </c>
+      <c r="AB5">
+        <v>485.5</v>
+      </c>
+      <c r="AC5">
+        <v>559.5</v>
+      </c>
+      <c r="AD5">
+        <v>637</v>
+      </c>
+      <c r="AE5">
+        <v>384.0833333333333</v>
+      </c>
+      <c r="AF5">
+        <v>133.6450239411944</v>
+      </c>
+      <c r="AG5">
+        <v>199</v>
+      </c>
+      <c r="AH5">
+        <v>270.5</v>
+      </c>
+      <c r="AI5">
+        <v>381</v>
+      </c>
+      <c r="AJ5">
+        <v>473.75</v>
+      </c>
+      <c r="AK5">
+        <v>668</v>
+      </c>
+      <c r="AL5">
+        <v>199.75</v>
+      </c>
+      <c r="AM5">
+        <v>97.49230738883966</v>
+      </c>
+      <c r="AN5">
+        <v>33</v>
+      </c>
+      <c r="AO5">
+        <v>157.75</v>
+      </c>
+      <c r="AP5">
+        <v>195</v>
+      </c>
+      <c r="AQ5">
+        <v>258.75</v>
+      </c>
+      <c r="AR5">
+        <v>401</v>
+      </c>
+      <c r="AS5">
+        <v>141.6666666666667</v>
+      </c>
+      <c r="AT5">
+        <v>73.89099260315014</v>
+      </c>
+      <c r="AU5">
+        <v>-15</v>
+      </c>
+      <c r="AV5">
+        <v>117.25</v>
+      </c>
+      <c r="AW5">
+        <v>148</v>
+      </c>
+      <c r="AX5">
+        <v>171.25</v>
+      </c>
+      <c r="AY5">
+        <v>284</v>
+      </c>
+      <c r="AZ5">
+        <v>255.5833333333333</v>
+      </c>
+      <c r="BA5">
+        <v>99.31259952414106</v>
+      </c>
+      <c r="BB5">
+        <v>121</v>
+      </c>
+      <c r="BC5">
+        <v>165.5</v>
+      </c>
+      <c r="BD5">
+        <v>252</v>
+      </c>
+      <c r="BE5">
+        <v>339.25</v>
+      </c>
+      <c r="BF5">
+        <v>394</v>
+      </c>
+      <c r="BG5">
+        <v>242.4166666666667</v>
+      </c>
+      <c r="BH5">
+        <v>84.69781400348947</v>
+      </c>
+      <c r="BI5">
+        <v>120</v>
+      </c>
+      <c r="BJ5">
+        <v>182.25</v>
+      </c>
+      <c r="BK5">
+        <v>230</v>
+      </c>
+      <c r="BL5">
+        <v>314.25</v>
+      </c>
+      <c r="BM5">
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:65">
@@ -14499,6 +16313,132 @@
       <c r="W6">
         <v>70</v>
       </c>
+      <c r="X6">
+        <v>361.8571428571428</v>
+      </c>
+      <c r="Y6">
+        <v>87.10994694719345</v>
+      </c>
+      <c r="Z6">
+        <v>250</v>
+      </c>
+      <c r="AA6">
+        <v>300.5</v>
+      </c>
+      <c r="AB6">
+        <v>360</v>
+      </c>
+      <c r="AC6">
+        <v>420</v>
+      </c>
+      <c r="AD6">
+        <v>482</v>
+      </c>
+      <c r="AE6">
+        <v>491.8571428571428</v>
+      </c>
+      <c r="AF6">
+        <v>113.7664692420817</v>
+      </c>
+      <c r="AG6">
+        <v>258</v>
+      </c>
+      <c r="AH6">
+        <v>473</v>
+      </c>
+      <c r="AI6">
+        <v>529</v>
+      </c>
+      <c r="AJ6">
+        <v>559</v>
+      </c>
+      <c r="AK6">
+        <v>592</v>
+      </c>
+      <c r="AL6">
+        <v>166.4285714285714</v>
+      </c>
+      <c r="AM6">
+        <v>103.5516894162156</v>
+      </c>
+      <c r="AN6">
+        <v>53</v>
+      </c>
+      <c r="AO6">
+        <v>91</v>
+      </c>
+      <c r="AP6">
+        <v>130</v>
+      </c>
+      <c r="AQ6">
+        <v>231.5</v>
+      </c>
+      <c r="AR6">
+        <v>337</v>
+      </c>
+      <c r="AS6">
+        <v>226</v>
+      </c>
+      <c r="AT6">
+        <v>140.0737900774683</v>
+      </c>
+      <c r="AU6">
+        <v>84</v>
+      </c>
+      <c r="AV6">
+        <v>142</v>
+      </c>
+      <c r="AW6">
+        <v>201</v>
+      </c>
+      <c r="AX6">
+        <v>253</v>
+      </c>
+      <c r="AY6">
+        <v>507</v>
+      </c>
+      <c r="AZ6">
+        <v>195.4285714285714</v>
+      </c>
+      <c r="BA6">
+        <v>52.3827488869416</v>
+      </c>
+      <c r="BB6">
+        <v>120</v>
+      </c>
+      <c r="BC6">
+        <v>158</v>
+      </c>
+      <c r="BD6">
+        <v>206</v>
+      </c>
+      <c r="BE6">
+        <v>229</v>
+      </c>
+      <c r="BF6">
+        <v>268</v>
+      </c>
+      <c r="BG6">
+        <v>265.8571428571428</v>
+      </c>
+      <c r="BH6">
+        <v>126.4666340336831</v>
+      </c>
+      <c r="BI6">
+        <v>85</v>
+      </c>
+      <c r="BJ6">
+        <v>196.5</v>
+      </c>
+      <c r="BK6">
+        <v>221</v>
+      </c>
+      <c r="BL6">
+        <v>361</v>
+      </c>
+      <c r="BM6">
+        <v>440</v>
+      </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" s="1"/>
@@ -14568,6 +16508,132 @@
       <c r="W7">
         <v>49</v>
       </c>
+      <c r="X7">
+        <v>347.6666666666667</v>
+      </c>
+      <c r="Y7">
+        <v>54.52950271794771</v>
+      </c>
+      <c r="Z7">
+        <v>287</v>
+      </c>
+      <c r="AA7">
+        <v>304</v>
+      </c>
+      <c r="AB7">
+        <v>344.5</v>
+      </c>
+      <c r="AC7">
+        <v>385</v>
+      </c>
+      <c r="AD7">
+        <v>421</v>
+      </c>
+      <c r="AE7">
+        <v>418.1666666666667</v>
+      </c>
+      <c r="AF7">
+        <v>78.14196482471289</v>
+      </c>
+      <c r="AG7">
+        <v>287</v>
+      </c>
+      <c r="AH7">
+        <v>381.25</v>
+      </c>
+      <c r="AI7">
+        <v>446</v>
+      </c>
+      <c r="AJ7">
+        <v>471.75</v>
+      </c>
+      <c r="AK7">
+        <v>490</v>
+      </c>
+      <c r="AL7">
+        <v>130.6666666666667</v>
+      </c>
+      <c r="AM7">
+        <v>43.99848482239663</v>
+      </c>
+      <c r="AN7">
+        <v>97</v>
+      </c>
+      <c r="AO7">
+        <v>103.5</v>
+      </c>
+      <c r="AP7">
+        <v>116</v>
+      </c>
+      <c r="AQ7">
+        <v>134.5</v>
+      </c>
+      <c r="AR7">
+        <v>215</v>
+      </c>
+      <c r="AS7">
+        <v>178</v>
+      </c>
+      <c r="AT7">
+        <v>88.72880028491313</v>
+      </c>
+      <c r="AU7">
+        <v>103</v>
+      </c>
+      <c r="AV7">
+        <v>117.75</v>
+      </c>
+      <c r="AW7">
+        <v>142.5</v>
+      </c>
+      <c r="AX7">
+        <v>215.25</v>
+      </c>
+      <c r="AY7">
+        <v>331</v>
+      </c>
+      <c r="AZ7">
+        <v>217</v>
+      </c>
+      <c r="BA7">
+        <v>42.32257081038438</v>
+      </c>
+      <c r="BB7">
+        <v>175</v>
+      </c>
+      <c r="BC7">
+        <v>185.25</v>
+      </c>
+      <c r="BD7">
+        <v>205</v>
+      </c>
+      <c r="BE7">
+        <v>249.5</v>
+      </c>
+      <c r="BF7">
+        <v>274</v>
+      </c>
+      <c r="BG7">
+        <v>240.1666666666667</v>
+      </c>
+      <c r="BH7">
+        <v>135.9314778359548</v>
+      </c>
+      <c r="BI7">
+        <v>33</v>
+      </c>
+      <c r="BJ7">
+        <v>156.25</v>
+      </c>
+      <c r="BK7">
+        <v>271.5</v>
+      </c>
+      <c r="BL7">
+        <v>348.5</v>
+      </c>
+      <c r="BM7">
+        <v>373</v>
+      </c>
     </row>
     <row r="8" spans="1:65">
       <c r="A8" s="1"/>
@@ -14578,64 +16644,190 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I8" t="s">
         <v>278</v>
       </c>
       <c r="J8">
-        <v>18.83333333333333</v>
+        <v>22.6</v>
       </c>
       <c r="K8">
-        <v>19.94408851431087</v>
+        <v>19.76866206904251</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="N8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O8">
-        <v>27.25</v>
+        <v>31</v>
       </c>
       <c r="P8">
         <v>52</v>
       </c>
       <c r="Q8">
-        <v>17.33333333333333</v>
+        <v>20.8</v>
       </c>
       <c r="R8">
-        <v>11.18332091405172</v>
+        <v>8.136338242723197</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T8">
         <v>13</v>
       </c>
       <c r="U8">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="V8">
-        <v>25.25</v>
+        <v>27</v>
       </c>
       <c r="W8">
         <v>31</v>
+      </c>
+      <c r="X8">
+        <v>358</v>
+      </c>
+      <c r="Y8">
+        <v>135.1684134700116</v>
+      </c>
+      <c r="Z8">
+        <v>226</v>
+      </c>
+      <c r="AA8">
+        <v>285</v>
+      </c>
+      <c r="AB8">
+        <v>287</v>
+      </c>
+      <c r="AC8">
+        <v>436</v>
+      </c>
+      <c r="AD8">
+        <v>556</v>
+      </c>
+      <c r="AE8">
+        <v>395.8</v>
+      </c>
+      <c r="AF8">
+        <v>89.4158822581313</v>
+      </c>
+      <c r="AG8">
+        <v>293</v>
+      </c>
+      <c r="AH8">
+        <v>313</v>
+      </c>
+      <c r="AI8">
+        <v>421</v>
+      </c>
+      <c r="AJ8">
+        <v>453</v>
+      </c>
+      <c r="AK8">
+        <v>499</v>
+      </c>
+      <c r="AL8">
+        <v>150.6</v>
+      </c>
+      <c r="AM8">
+        <v>82.16629479293806</v>
+      </c>
+      <c r="AN8">
+        <v>58</v>
+      </c>
+      <c r="AO8">
+        <v>85</v>
+      </c>
+      <c r="AP8">
+        <v>153</v>
+      </c>
+      <c r="AQ8">
+        <v>197</v>
+      </c>
+      <c r="AR8">
+        <v>260</v>
+      </c>
+      <c r="AS8">
+        <v>178.2</v>
+      </c>
+      <c r="AT8">
+        <v>42.2634593946118</v>
+      </c>
+      <c r="AU8">
+        <v>120</v>
+      </c>
+      <c r="AV8">
+        <v>164</v>
+      </c>
+      <c r="AW8">
+        <v>168</v>
+      </c>
+      <c r="AX8">
+        <v>215</v>
+      </c>
+      <c r="AY8">
+        <v>224</v>
+      </c>
+      <c r="AZ8">
+        <v>207.4</v>
+      </c>
+      <c r="BA8">
+        <v>87.98181630314301</v>
+      </c>
+      <c r="BB8">
+        <v>134</v>
+      </c>
+      <c r="BC8">
+        <v>168</v>
+      </c>
+      <c r="BD8">
+        <v>176</v>
+      </c>
+      <c r="BE8">
+        <v>200</v>
+      </c>
+      <c r="BF8">
+        <v>359</v>
+      </c>
+      <c r="BG8">
+        <v>217.6</v>
+      </c>
+      <c r="BH8">
+        <v>64.08431945491814</v>
+      </c>
+      <c r="BI8">
+        <v>129</v>
+      </c>
+      <c r="BJ8">
+        <v>193</v>
+      </c>
+      <c r="BK8">
+        <v>206</v>
+      </c>
+      <c r="BL8">
+        <v>275</v>
+      </c>
+      <c r="BM8">
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:65">
@@ -14706,6 +16898,132 @@
       <c r="W9">
         <v>31</v>
       </c>
+      <c r="X9">
+        <v>304.5714285714286</v>
+      </c>
+      <c r="Y9">
+        <v>90.540703816676</v>
+      </c>
+      <c r="Z9">
+        <v>203</v>
+      </c>
+      <c r="AA9">
+        <v>236</v>
+      </c>
+      <c r="AB9">
+        <v>293</v>
+      </c>
+      <c r="AC9">
+        <v>360</v>
+      </c>
+      <c r="AD9">
+        <v>444</v>
+      </c>
+      <c r="AE9">
+        <v>371.7142857142857</v>
+      </c>
+      <c r="AF9">
+        <v>77.7789909202442</v>
+      </c>
+      <c r="AG9">
+        <v>290</v>
+      </c>
+      <c r="AH9">
+        <v>326.5</v>
+      </c>
+      <c r="AI9">
+        <v>344</v>
+      </c>
+      <c r="AJ9">
+        <v>400</v>
+      </c>
+      <c r="AK9">
+        <v>515</v>
+      </c>
+      <c r="AL9">
+        <v>93.14285714285714</v>
+      </c>
+      <c r="AM9">
+        <v>48.04660435947779</v>
+      </c>
+      <c r="AN9">
+        <v>28</v>
+      </c>
+      <c r="AO9">
+        <v>64</v>
+      </c>
+      <c r="AP9">
+        <v>100</v>
+      </c>
+      <c r="AQ9">
+        <v>116</v>
+      </c>
+      <c r="AR9">
+        <v>164</v>
+      </c>
+      <c r="AS9">
+        <v>183.2857142857143</v>
+      </c>
+      <c r="AT9">
+        <v>69.47832824153224</v>
+      </c>
+      <c r="AU9">
+        <v>81</v>
+      </c>
+      <c r="AV9">
+        <v>136</v>
+      </c>
+      <c r="AW9">
+        <v>200</v>
+      </c>
+      <c r="AX9">
+        <v>234</v>
+      </c>
+      <c r="AY9">
+        <v>262</v>
+      </c>
+      <c r="AZ9">
+        <v>211.4285714285714</v>
+      </c>
+      <c r="BA9">
+        <v>90.40069531970268</v>
+      </c>
+      <c r="BB9">
+        <v>105</v>
+      </c>
+      <c r="BC9">
+        <v>146.5</v>
+      </c>
+      <c r="BD9">
+        <v>166</v>
+      </c>
+      <c r="BE9">
+        <v>300.5</v>
+      </c>
+      <c r="BF9">
+        <v>315</v>
+      </c>
+      <c r="BG9">
+        <v>188.4285714285714</v>
+      </c>
+      <c r="BH9">
+        <v>92.74491386388284</v>
+      </c>
+      <c r="BI9">
+        <v>28</v>
+      </c>
+      <c r="BJ9">
+        <v>154</v>
+      </c>
+      <c r="BK9">
+        <v>176</v>
+      </c>
+      <c r="BL9">
+        <v>246</v>
+      </c>
+      <c r="BM9">
+        <v>315</v>
+      </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" s="1"/>
@@ -14775,6 +17093,132 @@
       <c r="W10">
         <v>45</v>
       </c>
+      <c r="X10">
+        <v>460.5714285714286</v>
+      </c>
+      <c r="Y10">
+        <v>122.1104106165907</v>
+      </c>
+      <c r="Z10">
+        <v>290</v>
+      </c>
+      <c r="AA10">
+        <v>389</v>
+      </c>
+      <c r="AB10">
+        <v>471</v>
+      </c>
+      <c r="AC10">
+        <v>508.5</v>
+      </c>
+      <c r="AD10">
+        <v>668</v>
+      </c>
+      <c r="AE10">
+        <v>432.7142857142857</v>
+      </c>
+      <c r="AF10">
+        <v>148.6200012175507</v>
+      </c>
+      <c r="AG10">
+        <v>264</v>
+      </c>
+      <c r="AH10">
+        <v>305.5</v>
+      </c>
+      <c r="AI10">
+        <v>416</v>
+      </c>
+      <c r="AJ10">
+        <v>550.5</v>
+      </c>
+      <c r="AK10">
+        <v>637</v>
+      </c>
+      <c r="AL10">
+        <v>200.2857142857143</v>
+      </c>
+      <c r="AM10">
+        <v>52.64571614643901</v>
+      </c>
+      <c r="AN10">
+        <v>146</v>
+      </c>
+      <c r="AO10">
+        <v>166</v>
+      </c>
+      <c r="AP10">
+        <v>178</v>
+      </c>
+      <c r="AQ10">
+        <v>231</v>
+      </c>
+      <c r="AR10">
+        <v>284</v>
+      </c>
+      <c r="AS10">
+        <v>152</v>
+      </c>
+      <c r="AT10">
+        <v>99.2253327868779</v>
+      </c>
+      <c r="AU10">
+        <v>28</v>
+      </c>
+      <c r="AV10">
+        <v>86</v>
+      </c>
+      <c r="AW10">
+        <v>113</v>
+      </c>
+      <c r="AX10">
+        <v>232</v>
+      </c>
+      <c r="AY10">
+        <v>287</v>
+      </c>
+      <c r="AZ10">
+        <v>260.2857142857143</v>
+      </c>
+      <c r="BA10">
+        <v>120.4404614816166</v>
+      </c>
+      <c r="BB10">
+        <v>28</v>
+      </c>
+      <c r="BC10">
+        <v>227</v>
+      </c>
+      <c r="BD10">
+        <v>308</v>
+      </c>
+      <c r="BE10">
+        <v>324</v>
+      </c>
+      <c r="BF10">
+        <v>384</v>
+      </c>
+      <c r="BG10">
+        <v>280.7142857142857</v>
+      </c>
+      <c r="BH10">
+        <v>70.65813066145628</v>
+      </c>
+      <c r="BI10">
+        <v>164</v>
+      </c>
+      <c r="BJ10">
+        <v>249</v>
+      </c>
+      <c r="BK10">
+        <v>299</v>
+      </c>
+      <c r="BL10">
+        <v>315.5</v>
+      </c>
+      <c r="BM10">
+        <v>373</v>
+      </c>
     </row>
     <row r="11" spans="1:65">
       <c r="A11" s="1"/>
@@ -14844,6 +17288,132 @@
       <c r="W11">
         <v>41</v>
       </c>
+      <c r="X11">
+        <v>400.4</v>
+      </c>
+      <c r="Y11">
+        <v>93.0768499681849</v>
+      </c>
+      <c r="Z11">
+        <v>258</v>
+      </c>
+      <c r="AA11">
+        <v>364</v>
+      </c>
+      <c r="AB11">
+        <v>433</v>
+      </c>
+      <c r="AC11">
+        <v>448</v>
+      </c>
+      <c r="AD11">
+        <v>499</v>
+      </c>
+      <c r="AE11">
+        <v>367.2</v>
+      </c>
+      <c r="AF11">
+        <v>79.07401595973231</v>
+      </c>
+      <c r="AG11">
+        <v>285</v>
+      </c>
+      <c r="AH11">
+        <v>301</v>
+      </c>
+      <c r="AI11">
+        <v>376</v>
+      </c>
+      <c r="AJ11">
+        <v>392</v>
+      </c>
+      <c r="AK11">
+        <v>482</v>
+      </c>
+      <c r="AL11">
+        <v>197</v>
+      </c>
+      <c r="AM11">
+        <v>99.7572052535555</v>
+      </c>
+      <c r="AN11">
+        <v>84</v>
+      </c>
+      <c r="AO11">
+        <v>113</v>
+      </c>
+      <c r="AP11">
+        <v>224</v>
+      </c>
+      <c r="AQ11">
+        <v>233</v>
+      </c>
+      <c r="AR11">
+        <v>331</v>
+      </c>
+      <c r="AS11">
+        <v>136.6</v>
+      </c>
+      <c r="AT11">
+        <v>113.0853659851707</v>
+      </c>
+      <c r="AU11">
+        <v>62</v>
+      </c>
+      <c r="AV11">
+        <v>85</v>
+      </c>
+      <c r="AW11">
+        <v>97</v>
+      </c>
+      <c r="AX11">
+        <v>102</v>
+      </c>
+      <c r="AY11">
+        <v>337</v>
+      </c>
+      <c r="AZ11">
+        <v>203.4</v>
+      </c>
+      <c r="BA11">
+        <v>110.4051629227547</v>
+      </c>
+      <c r="BB11">
+        <v>33</v>
+      </c>
+      <c r="BC11">
+        <v>174</v>
+      </c>
+      <c r="BD11">
+        <v>215</v>
+      </c>
+      <c r="BE11">
+        <v>275</v>
+      </c>
+      <c r="BF11">
+        <v>320</v>
+      </c>
+      <c r="BG11">
+        <v>230.6</v>
+      </c>
+      <c r="BH11">
+        <v>71.99861109771493</v>
+      </c>
+      <c r="BI11">
+        <v>145</v>
+      </c>
+      <c r="BJ11">
+        <v>200</v>
+      </c>
+      <c r="BK11">
+        <v>204</v>
+      </c>
+      <c r="BL11">
+        <v>274</v>
+      </c>
+      <c r="BM11">
+        <v>330</v>
+      </c>
     </row>
     <row r="12" spans="1:65">
       <c r="A12" s="1"/>
@@ -14912,6 +17482,132 @@
       </c>
       <c r="W12">
         <v>30</v>
+      </c>
+      <c r="X12">
+        <v>443.3333333333333</v>
+      </c>
+      <c r="Y12">
+        <v>176.6842758519652</v>
+      </c>
+      <c r="Z12">
+        <v>248</v>
+      </c>
+      <c r="AA12">
+        <v>369</v>
+      </c>
+      <c r="AB12">
+        <v>490</v>
+      </c>
+      <c r="AC12">
+        <v>541</v>
+      </c>
+      <c r="AD12">
+        <v>592</v>
+      </c>
+      <c r="AE12">
+        <v>390.3333333333333</v>
+      </c>
+      <c r="AF12">
+        <v>127.9309709700248</v>
+      </c>
+      <c r="AG12">
+        <v>313</v>
+      </c>
+      <c r="AH12">
+        <v>316.5</v>
+      </c>
+      <c r="AI12">
+        <v>320</v>
+      </c>
+      <c r="AJ12">
+        <v>429</v>
+      </c>
+      <c r="AK12">
+        <v>538</v>
+      </c>
+      <c r="AL12">
+        <v>242.3333333333333</v>
+      </c>
+      <c r="AM12">
+        <v>230.2614456076686</v>
+      </c>
+      <c r="AN12">
+        <v>88</v>
+      </c>
+      <c r="AO12">
+        <v>110</v>
+      </c>
+      <c r="AP12">
+        <v>132</v>
+      </c>
+      <c r="AQ12">
+        <v>319.5</v>
+      </c>
+      <c r="AR12">
+        <v>507</v>
+      </c>
+      <c r="AS12">
+        <v>146.3333333333333</v>
+      </c>
+      <c r="AT12">
+        <v>60.92892033618627</v>
+      </c>
+      <c r="AU12">
+        <v>90</v>
+      </c>
+      <c r="AV12">
+        <v>114</v>
+      </c>
+      <c r="AW12">
+        <v>138</v>
+      </c>
+      <c r="AX12">
+        <v>174.5</v>
+      </c>
+      <c r="AY12">
+        <v>211</v>
+      </c>
+      <c r="AZ12">
+        <v>201</v>
+      </c>
+      <c r="BA12">
+        <v>141.0425467722417</v>
+      </c>
+      <c r="BB12">
+        <v>85</v>
+      </c>
+      <c r="BC12">
+        <v>122.5</v>
+      </c>
+      <c r="BD12">
+        <v>160</v>
+      </c>
+      <c r="BE12">
+        <v>259</v>
+      </c>
+      <c r="BF12">
+        <v>358</v>
+      </c>
+      <c r="BG12">
+        <v>244</v>
+      </c>
+      <c r="BH12">
+        <v>76.96102909914862</v>
+      </c>
+      <c r="BI12">
+        <v>175</v>
+      </c>
+      <c r="BJ12">
+        <v>202.5</v>
+      </c>
+      <c r="BK12">
+        <v>230</v>
+      </c>
+      <c r="BL12">
+        <v>278.5</v>
+      </c>
+      <c r="BM12">
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:65">
@@ -19499,6 +22195,132 @@
       <c r="X2">
         <v>56</v>
       </c>
+      <c r="Y2">
+        <v>338.25</v>
+      </c>
+      <c r="Z2">
+        <v>94.60928425195208</v>
+      </c>
+      <c r="AA2">
+        <v>250</v>
+      </c>
+      <c r="AB2">
+        <v>273.25</v>
+      </c>
+      <c r="AC2">
+        <v>320.5</v>
+      </c>
+      <c r="AD2">
+        <v>385.5</v>
+      </c>
+      <c r="AE2">
+        <v>462</v>
+      </c>
+      <c r="AF2">
+        <v>516</v>
+      </c>
+      <c r="AG2">
+        <v>55.46169849544819</v>
+      </c>
+      <c r="AH2">
+        <v>443</v>
+      </c>
+      <c r="AI2">
+        <v>488</v>
+      </c>
+      <c r="AJ2">
+        <v>529</v>
+      </c>
+      <c r="AK2">
+        <v>557</v>
+      </c>
+      <c r="AL2">
+        <v>563</v>
+      </c>
+      <c r="AM2">
+        <v>132.75</v>
+      </c>
+      <c r="AN2">
+        <v>87.97490172391971</v>
+      </c>
+      <c r="AO2">
+        <v>53</v>
+      </c>
+      <c r="AP2">
+        <v>82.25</v>
+      </c>
+      <c r="AQ2">
+        <v>111</v>
+      </c>
+      <c r="AR2">
+        <v>161.5</v>
+      </c>
+      <c r="AS2">
+        <v>256</v>
+      </c>
+      <c r="AT2">
+        <v>197.5</v>
+      </c>
+      <c r="AU2">
+        <v>70.059498523279</v>
+      </c>
+      <c r="AV2">
+        <v>123</v>
+      </c>
+      <c r="AW2">
+        <v>151.5</v>
+      </c>
+      <c r="AX2">
+        <v>192.5</v>
+      </c>
+      <c r="AY2">
+        <v>238.5</v>
+      </c>
+      <c r="AZ2">
+        <v>282</v>
+      </c>
+      <c r="BA2">
+        <v>205.5</v>
+      </c>
+      <c r="BB2">
+        <v>62.51133230596407</v>
+      </c>
+      <c r="BC2">
+        <v>120</v>
+      </c>
+      <c r="BD2">
+        <v>184.5</v>
+      </c>
+      <c r="BE2">
+        <v>217</v>
+      </c>
+      <c r="BF2">
+        <v>238</v>
+      </c>
+      <c r="BG2">
+        <v>268</v>
+      </c>
+      <c r="BH2">
+        <v>318.5</v>
+      </c>
+      <c r="BI2">
+        <v>115.2808165596803</v>
+      </c>
+      <c r="BJ2">
+        <v>219</v>
+      </c>
+      <c r="BK2">
+        <v>220.5</v>
+      </c>
+      <c r="BL2">
+        <v>307.5</v>
+      </c>
+      <c r="BM2">
+        <v>405.5</v>
+      </c>
+      <c r="BN2">
+        <v>440</v>
+      </c>
     </row>
     <row r="3" spans="1:66">
       <c r="A3" s="1"/>
@@ -19569,6 +22391,132 @@
       <c r="X3">
         <v>70</v>
       </c>
+      <c r="Y3">
+        <v>393.3333333333333</v>
+      </c>
+      <c r="Z3">
+        <v>82.08126054912493</v>
+      </c>
+      <c r="AA3">
+        <v>320</v>
+      </c>
+      <c r="AB3">
+        <v>349</v>
+      </c>
+      <c r="AC3">
+        <v>378</v>
+      </c>
+      <c r="AD3">
+        <v>430</v>
+      </c>
+      <c r="AE3">
+        <v>482</v>
+      </c>
+      <c r="AF3">
+        <v>459.6666666666667</v>
+      </c>
+      <c r="AG3">
+        <v>177.4664287501536</v>
+      </c>
+      <c r="AH3">
+        <v>258</v>
+      </c>
+      <c r="AI3">
+        <v>393.5</v>
+      </c>
+      <c r="AJ3">
+        <v>529</v>
+      </c>
+      <c r="AK3">
+        <v>560.5</v>
+      </c>
+      <c r="AL3">
+        <v>592</v>
+      </c>
+      <c r="AM3">
+        <v>211.3333333333333</v>
+      </c>
+      <c r="AN3">
+        <v>123.5570043879882</v>
+      </c>
+      <c r="AO3">
+        <v>90</v>
+      </c>
+      <c r="AP3">
+        <v>148.5</v>
+      </c>
+      <c r="AQ3">
+        <v>207</v>
+      </c>
+      <c r="AR3">
+        <v>272</v>
+      </c>
+      <c r="AS3">
+        <v>337</v>
+      </c>
+      <c r="AT3">
+        <v>264</v>
+      </c>
+      <c r="AU3">
+        <v>218.4238997912088</v>
+      </c>
+      <c r="AV3">
+        <v>84</v>
+      </c>
+      <c r="AW3">
+        <v>142.5</v>
+      </c>
+      <c r="AX3">
+        <v>201</v>
+      </c>
+      <c r="AY3">
+        <v>354</v>
+      </c>
+      <c r="AZ3">
+        <v>507</v>
+      </c>
+      <c r="BA3">
+        <v>182</v>
+      </c>
+      <c r="BB3">
+        <v>43.55456348076513</v>
+      </c>
+      <c r="BC3">
+        <v>145</v>
+      </c>
+      <c r="BD3">
+        <v>158</v>
+      </c>
+      <c r="BE3">
+        <v>171</v>
+      </c>
+      <c r="BF3">
+        <v>200.5</v>
+      </c>
+      <c r="BG3">
+        <v>230</v>
+      </c>
+      <c r="BH3">
+        <v>195.6666666666667</v>
+      </c>
+      <c r="BI3">
+        <v>122.9403649471293</v>
+      </c>
+      <c r="BJ3">
+        <v>85</v>
+      </c>
+      <c r="BK3">
+        <v>129.5</v>
+      </c>
+      <c r="BL3">
+        <v>174</v>
+      </c>
+      <c r="BM3">
+        <v>251</v>
+      </c>
+      <c r="BN3">
+        <v>328</v>
+      </c>
     </row>
     <row r="4" spans="1:66">
       <c r="A4" s="1"/>
@@ -19582,64 +22530,190 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>277</v>
       </c>
       <c r="K4">
-        <v>26.33333333333333</v>
+        <v>31.6</v>
       </c>
       <c r="L4">
-        <v>16.54891738654425</v>
+        <v>11.58878768465451</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N4">
-        <v>17.25</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P4">
-        <v>36.25</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>44</v>
       </c>
       <c r="R4">
-        <v>20.5</v>
+        <v>24.6</v>
       </c>
       <c r="S4">
-        <v>19.63415391607186</v>
+        <v>18.86266153012347</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>6.25</v>
+        <v>16</v>
       </c>
       <c r="V4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="X4">
         <v>52</v>
+      </c>
+      <c r="Y4">
+        <v>447.6</v>
+      </c>
+      <c r="Z4">
+        <v>108.9325479367852</v>
+      </c>
+      <c r="AA4">
+        <v>273</v>
+      </c>
+      <c r="AB4">
+        <v>416</v>
+      </c>
+      <c r="AC4">
+        <v>482</v>
+      </c>
+      <c r="AD4">
+        <v>529</v>
+      </c>
+      <c r="AE4">
+        <v>538</v>
+      </c>
+      <c r="AF4">
+        <v>406.6</v>
+      </c>
+      <c r="AG4">
+        <v>106.8049624315275</v>
+      </c>
+      <c r="AH4">
+        <v>248</v>
+      </c>
+      <c r="AI4">
+        <v>378</v>
+      </c>
+      <c r="AJ4">
+        <v>423</v>
+      </c>
+      <c r="AK4">
+        <v>443</v>
+      </c>
+      <c r="AL4">
+        <v>541</v>
+      </c>
+      <c r="AM4">
+        <v>158.8</v>
+      </c>
+      <c r="AN4">
+        <v>44.11575682225116</v>
+      </c>
+      <c r="AO4">
+        <v>113</v>
+      </c>
+      <c r="AP4">
+        <v>134</v>
+      </c>
+      <c r="AQ4">
+        <v>135</v>
+      </c>
+      <c r="AR4">
+        <v>201</v>
+      </c>
+      <c r="AS4">
+        <v>211</v>
+      </c>
+      <c r="AT4">
+        <v>198</v>
+      </c>
+      <c r="AU4">
+        <v>121.0309877675961</v>
+      </c>
+      <c r="AV4">
+        <v>88</v>
+      </c>
+      <c r="AW4">
+        <v>146</v>
+      </c>
+      <c r="AX4">
+        <v>148</v>
+      </c>
+      <c r="AY4">
+        <v>207</v>
+      </c>
+      <c r="AZ4">
+        <v>401</v>
+      </c>
+      <c r="BA4">
+        <v>288.8</v>
+      </c>
+      <c r="BB4">
+        <v>85.18333170286309</v>
+      </c>
+      <c r="BC4">
+        <v>139</v>
+      </c>
+      <c r="BD4">
+        <v>303</v>
+      </c>
+      <c r="BE4">
+        <v>327</v>
+      </c>
+      <c r="BF4">
+        <v>328</v>
+      </c>
+      <c r="BG4">
+        <v>347</v>
+      </c>
+      <c r="BH4">
+        <v>208.6</v>
+      </c>
+      <c r="BI4">
+        <v>71.80738123619325</v>
+      </c>
+      <c r="BJ4">
+        <v>140</v>
+      </c>
+      <c r="BK4">
+        <v>160</v>
+      </c>
+      <c r="BL4">
+        <v>171</v>
+      </c>
+      <c r="BM4">
+        <v>277</v>
+      </c>
+      <c r="BN4">
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:66">
@@ -19711,6 +22785,132 @@
       <c r="X5">
         <v>35</v>
       </c>
+      <c r="Y5">
+        <v>369.1666666666667</v>
+      </c>
+      <c r="Z5">
+        <v>136.4322786831132</v>
+      </c>
+      <c r="AA5">
+        <v>169</v>
+      </c>
+      <c r="AB5">
+        <v>298.25</v>
+      </c>
+      <c r="AC5">
+        <v>378.5</v>
+      </c>
+      <c r="AD5">
+        <v>435.5</v>
+      </c>
+      <c r="AE5">
+        <v>563</v>
+      </c>
+      <c r="AF5">
+        <v>333.3333333333333</v>
+      </c>
+      <c r="AG5">
+        <v>100.5020729471122</v>
+      </c>
+      <c r="AH5">
+        <v>208</v>
+      </c>
+      <c r="AI5">
+        <v>258.5</v>
+      </c>
+      <c r="AJ5">
+        <v>336.5</v>
+      </c>
+      <c r="AK5">
+        <v>402.5</v>
+      </c>
+      <c r="AL5">
+        <v>462</v>
+      </c>
+      <c r="AM5">
+        <v>181.1666666666667</v>
+      </c>
+      <c r="AN5">
+        <v>46.35263386978853</v>
+      </c>
+      <c r="AO5">
+        <v>121</v>
+      </c>
+      <c r="AP5">
+        <v>143.5</v>
+      </c>
+      <c r="AQ5">
+        <v>205.5</v>
+      </c>
+      <c r="AR5">
+        <v>207.5</v>
+      </c>
+      <c r="AS5">
+        <v>224</v>
+      </c>
+      <c r="AT5">
+        <v>173</v>
+      </c>
+      <c r="AU5">
+        <v>125.6646330516267</v>
+      </c>
+      <c r="AV5">
+        <v>33</v>
+      </c>
+      <c r="AW5">
+        <v>65.5</v>
+      </c>
+      <c r="AX5">
+        <v>179.5</v>
+      </c>
+      <c r="AY5">
+        <v>259</v>
+      </c>
+      <c r="AZ5">
+        <v>333</v>
+      </c>
+      <c r="BA5">
+        <v>188</v>
+      </c>
+      <c r="BB5">
+        <v>141.0602708064889</v>
+      </c>
+      <c r="BC5">
+        <v>48</v>
+      </c>
+      <c r="BD5">
+        <v>91.75</v>
+      </c>
+      <c r="BE5">
+        <v>172</v>
+      </c>
+      <c r="BF5">
+        <v>216.25</v>
+      </c>
+      <c r="BG5">
+        <v>440</v>
+      </c>
+      <c r="BH5">
+        <v>160.3333333333333</v>
+      </c>
+      <c r="BI5">
+        <v>65.54591266178744</v>
+      </c>
+      <c r="BJ5">
+        <v>73</v>
+      </c>
+      <c r="BK5">
+        <v>111.75</v>
+      </c>
+      <c r="BL5">
+        <v>169</v>
+      </c>
+      <c r="BM5">
+        <v>215</v>
+      </c>
+      <c r="BN5">
+        <v>228</v>
+      </c>
     </row>
     <row r="6" spans="1:66">
       <c r="A6" s="1"/>
@@ -19742,10 +22942,10 @@
         <v>277</v>
       </c>
       <c r="K6">
-        <v>17.75</v>
+        <v>18.25</v>
       </c>
       <c r="L6">
-        <v>9.464847243000456</v>
+        <v>9.810708435174291</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -19754,10 +22954,10 @@
         <v>12.75</v>
       </c>
       <c r="O6">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="P6">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="Q6">
         <v>28</v>
@@ -19782,6 +22982,132 @@
       </c>
       <c r="X6">
         <v>41</v>
+      </c>
+      <c r="Y6">
+        <v>357</v>
+      </c>
+      <c r="Z6">
+        <v>37.35416085703617</v>
+      </c>
+      <c r="AA6">
+        <v>326</v>
+      </c>
+      <c r="AB6">
+        <v>329.75</v>
+      </c>
+      <c r="AC6">
+        <v>347.5</v>
+      </c>
+      <c r="AD6">
+        <v>374.75</v>
+      </c>
+      <c r="AE6">
+        <v>407</v>
+      </c>
+      <c r="AF6">
+        <v>342.75</v>
+      </c>
+      <c r="AG6">
+        <v>113.9777024977546</v>
+      </c>
+      <c r="AH6">
+        <v>203</v>
+      </c>
+      <c r="AI6">
+        <v>273.5</v>
+      </c>
+      <c r="AJ6">
+        <v>362</v>
+      </c>
+      <c r="AK6">
+        <v>431.25</v>
+      </c>
+      <c r="AL6">
+        <v>444</v>
+      </c>
+      <c r="AM6">
+        <v>127.5</v>
+      </c>
+      <c r="AN6">
+        <v>40.31128874149275</v>
+      </c>
+      <c r="AO6">
+        <v>77</v>
+      </c>
+      <c r="AP6">
+        <v>104</v>
+      </c>
+      <c r="AQ6">
+        <v>136</v>
+      </c>
+      <c r="AR6">
+        <v>159.5</v>
+      </c>
+      <c r="AS6">
+        <v>161</v>
+      </c>
+      <c r="AT6">
+        <v>149.75</v>
+      </c>
+      <c r="AU6">
+        <v>91.89622770640079</v>
+      </c>
+      <c r="AV6">
+        <v>37</v>
+      </c>
+      <c r="AW6">
+        <v>106</v>
+      </c>
+      <c r="AX6">
+        <v>152.5</v>
+      </c>
+      <c r="AY6">
+        <v>196.25</v>
+      </c>
+      <c r="AZ6">
+        <v>257</v>
+      </c>
+      <c r="BA6">
+        <v>229.5</v>
+      </c>
+      <c r="BB6">
+        <v>38.38836629327519</v>
+      </c>
+      <c r="BC6">
+        <v>172</v>
+      </c>
+      <c r="BD6">
+        <v>227.5</v>
+      </c>
+      <c r="BE6">
+        <v>247.5</v>
+      </c>
+      <c r="BF6">
+        <v>249.5</v>
+      </c>
+      <c r="BG6">
+        <v>251</v>
+      </c>
+      <c r="BH6">
+        <v>193</v>
+      </c>
+      <c r="BI6">
+        <v>84.31290925277497</v>
+      </c>
+      <c r="BJ6">
+        <v>121</v>
+      </c>
+      <c r="BK6">
+        <v>154.75</v>
+      </c>
+      <c r="BL6">
+        <v>168</v>
+      </c>
+      <c r="BM6">
+        <v>206.25</v>
+      </c>
+      <c r="BN6">
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:66">
@@ -19853,6 +23179,132 @@
       <c r="X7">
         <v>63</v>
       </c>
+      <c r="Y7">
+        <v>316.4</v>
+      </c>
+      <c r="Z7">
+        <v>87.19116927762811</v>
+      </c>
+      <c r="AA7">
+        <v>199</v>
+      </c>
+      <c r="AB7">
+        <v>263</v>
+      </c>
+      <c r="AC7">
+        <v>322</v>
+      </c>
+      <c r="AD7">
+        <v>392</v>
+      </c>
+      <c r="AE7">
+        <v>406</v>
+      </c>
+      <c r="AF7">
+        <v>354.6</v>
+      </c>
+      <c r="AG7">
+        <v>153.9100386589517</v>
+      </c>
+      <c r="AH7">
+        <v>169</v>
+      </c>
+      <c r="AI7">
+        <v>283</v>
+      </c>
+      <c r="AJ7">
+        <v>342</v>
+      </c>
+      <c r="AK7">
+        <v>393</v>
+      </c>
+      <c r="AL7">
+        <v>586</v>
+      </c>
+      <c r="AM7">
+        <v>147.6</v>
+      </c>
+      <c r="AN7">
+        <v>143.6899439766054</v>
+      </c>
+      <c r="AO7">
+        <v>-15</v>
+      </c>
+      <c r="AP7">
+        <v>79</v>
+      </c>
+      <c r="AQ7">
+        <v>81</v>
+      </c>
+      <c r="AR7">
+        <v>260</v>
+      </c>
+      <c r="AS7">
+        <v>333</v>
+      </c>
+      <c r="AT7">
+        <v>163.2</v>
+      </c>
+      <c r="AU7">
+        <v>53.73732408670904</v>
+      </c>
+      <c r="AV7">
+        <v>91</v>
+      </c>
+      <c r="AW7">
+        <v>121</v>
+      </c>
+      <c r="AX7">
+        <v>190</v>
+      </c>
+      <c r="AY7">
+        <v>206</v>
+      </c>
+      <c r="AZ7">
+        <v>208</v>
+      </c>
+      <c r="BA7">
+        <v>168.8</v>
+      </c>
+      <c r="BB7">
+        <v>67.11706191424057</v>
+      </c>
+      <c r="BC7">
+        <v>73</v>
+      </c>
+      <c r="BD7">
+        <v>132</v>
+      </c>
+      <c r="BE7">
+        <v>184</v>
+      </c>
+      <c r="BF7">
+        <v>214</v>
+      </c>
+      <c r="BG7">
+        <v>241</v>
+      </c>
+      <c r="BH7">
+        <v>191.4</v>
+      </c>
+      <c r="BI7">
+        <v>143.400836817642</v>
+      </c>
+      <c r="BJ7">
+        <v>48</v>
+      </c>
+      <c r="BK7">
+        <v>77</v>
+      </c>
+      <c r="BL7">
+        <v>152</v>
+      </c>
+      <c r="BM7">
+        <v>302</v>
+      </c>
+      <c r="BN7">
+        <v>378</v>
+      </c>
     </row>
     <row r="8" spans="1:66">
       <c r="A8" s="1"/>
@@ -19925,6 +23377,132 @@
       <c r="X8">
         <v>45</v>
       </c>
+      <c r="Y8">
+        <v>460.5714285714286</v>
+      </c>
+      <c r="Z8">
+        <v>122.1104106165907</v>
+      </c>
+      <c r="AA8">
+        <v>290</v>
+      </c>
+      <c r="AB8">
+        <v>389</v>
+      </c>
+      <c r="AC8">
+        <v>471</v>
+      </c>
+      <c r="AD8">
+        <v>508.5</v>
+      </c>
+      <c r="AE8">
+        <v>668</v>
+      </c>
+      <c r="AF8">
+        <v>432.7142857142857</v>
+      </c>
+      <c r="AG8">
+        <v>148.6200012175507</v>
+      </c>
+      <c r="AH8">
+        <v>264</v>
+      </c>
+      <c r="AI8">
+        <v>305.5</v>
+      </c>
+      <c r="AJ8">
+        <v>416</v>
+      </c>
+      <c r="AK8">
+        <v>550.5</v>
+      </c>
+      <c r="AL8">
+        <v>637</v>
+      </c>
+      <c r="AM8">
+        <v>200.2857142857143</v>
+      </c>
+      <c r="AN8">
+        <v>52.64571614643901</v>
+      </c>
+      <c r="AO8">
+        <v>146</v>
+      </c>
+      <c r="AP8">
+        <v>166</v>
+      </c>
+      <c r="AQ8">
+        <v>178</v>
+      </c>
+      <c r="AR8">
+        <v>231</v>
+      </c>
+      <c r="AS8">
+        <v>284</v>
+      </c>
+      <c r="AT8">
+        <v>152</v>
+      </c>
+      <c r="AU8">
+        <v>99.2253327868779</v>
+      </c>
+      <c r="AV8">
+        <v>28</v>
+      </c>
+      <c r="AW8">
+        <v>86</v>
+      </c>
+      <c r="AX8">
+        <v>113</v>
+      </c>
+      <c r="AY8">
+        <v>232</v>
+      </c>
+      <c r="AZ8">
+        <v>287</v>
+      </c>
+      <c r="BA8">
+        <v>260.2857142857143</v>
+      </c>
+      <c r="BB8">
+        <v>120.4404614816166</v>
+      </c>
+      <c r="BC8">
+        <v>28</v>
+      </c>
+      <c r="BD8">
+        <v>227</v>
+      </c>
+      <c r="BE8">
+        <v>308</v>
+      </c>
+      <c r="BF8">
+        <v>324</v>
+      </c>
+      <c r="BG8">
+        <v>384</v>
+      </c>
+      <c r="BH8">
+        <v>280.7142857142857</v>
+      </c>
+      <c r="BI8">
+        <v>70.65813066145628</v>
+      </c>
+      <c r="BJ8">
+        <v>164</v>
+      </c>
+      <c r="BK8">
+        <v>249</v>
+      </c>
+      <c r="BL8">
+        <v>299</v>
+      </c>
+      <c r="BM8">
+        <v>315.5</v>
+      </c>
+      <c r="BN8">
+        <v>373</v>
+      </c>
     </row>
     <row r="9" spans="1:66">
       <c r="A9" s="1"/>
@@ -19996,6 +23574,132 @@
       </c>
       <c r="X9">
         <v>45</v>
+      </c>
+      <c r="Y9">
+        <v>451.3333333333333</v>
+      </c>
+      <c r="Z9">
+        <v>55.89573627150226</v>
+      </c>
+      <c r="AA9">
+        <v>392</v>
+      </c>
+      <c r="AB9">
+        <v>425.5</v>
+      </c>
+      <c r="AC9">
+        <v>459</v>
+      </c>
+      <c r="AD9">
+        <v>481</v>
+      </c>
+      <c r="AE9">
+        <v>503</v>
+      </c>
+      <c r="AF9">
+        <v>398.6666666666667</v>
+      </c>
+      <c r="AG9">
+        <v>44.95924080023298</v>
+      </c>
+      <c r="AH9">
+        <v>360</v>
+      </c>
+      <c r="AI9">
+        <v>374</v>
+      </c>
+      <c r="AJ9">
+        <v>388</v>
+      </c>
+      <c r="AK9">
+        <v>418</v>
+      </c>
+      <c r="AL9">
+        <v>448</v>
+      </c>
+      <c r="AM9">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="AN9">
+        <v>116.0402229114256</v>
+      </c>
+      <c r="AO9">
+        <v>62</v>
+      </c>
+      <c r="AP9">
+        <v>149</v>
+      </c>
+      <c r="AQ9">
+        <v>236</v>
+      </c>
+      <c r="AR9">
+        <v>259</v>
+      </c>
+      <c r="AS9">
+        <v>282</v>
+      </c>
+      <c r="AT9">
+        <v>149.6666666666667</v>
+      </c>
+      <c r="AU9">
+        <v>73.92112914000525</v>
+      </c>
+      <c r="AV9">
+        <v>92</v>
+      </c>
+      <c r="AW9">
+        <v>108</v>
+      </c>
+      <c r="AX9">
+        <v>124</v>
+      </c>
+      <c r="AY9">
+        <v>178.5</v>
+      </c>
+      <c r="AZ9">
+        <v>233</v>
+      </c>
+      <c r="BA9">
+        <v>258</v>
+      </c>
+      <c r="BB9">
+        <v>62.36184731067546</v>
+      </c>
+      <c r="BC9">
+        <v>221</v>
+      </c>
+      <c r="BD9">
+        <v>222</v>
+      </c>
+      <c r="BE9">
+        <v>223</v>
+      </c>
+      <c r="BF9">
+        <v>276.5</v>
+      </c>
+      <c r="BG9">
+        <v>330</v>
+      </c>
+      <c r="BH9">
+        <v>249</v>
+      </c>
+      <c r="BI9">
+        <v>29.51270912674741</v>
+      </c>
+      <c r="BJ9">
+        <v>215</v>
+      </c>
+      <c r="BK9">
+        <v>239.5</v>
+      </c>
+      <c r="BL9">
+        <v>264</v>
+      </c>
+      <c r="BM9">
+        <v>266</v>
+      </c>
+      <c r="BN9">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:66">
@@ -20067,6 +23771,132 @@
       <c r="X10">
         <v>52</v>
       </c>
+      <c r="Y10">
+        <v>414</v>
+      </c>
+      <c r="Z10">
+        <v>88.22131261775694</v>
+      </c>
+      <c r="AA10">
+        <v>313</v>
+      </c>
+      <c r="AB10">
+        <v>383</v>
+      </c>
+      <c r="AC10">
+        <v>453</v>
+      </c>
+      <c r="AD10">
+        <v>464.5</v>
+      </c>
+      <c r="AE10">
+        <v>476</v>
+      </c>
+      <c r="AF10">
+        <v>356.3333333333333</v>
+      </c>
+      <c r="AG10">
+        <v>175.5856865844518</v>
+      </c>
+      <c r="AH10">
+        <v>226</v>
+      </c>
+      <c r="AI10">
+        <v>256.5</v>
+      </c>
+      <c r="AJ10">
+        <v>287</v>
+      </c>
+      <c r="AK10">
+        <v>421.5</v>
+      </c>
+      <c r="AL10">
+        <v>556</v>
+      </c>
+      <c r="AM10">
+        <v>130.3333333333333</v>
+      </c>
+      <c r="AN10">
+        <v>33.70954365359065</v>
+      </c>
+      <c r="AO10">
+        <v>103</v>
+      </c>
+      <c r="AP10">
+        <v>111.5</v>
+      </c>
+      <c r="AQ10">
+        <v>120</v>
+      </c>
+      <c r="AR10">
+        <v>144</v>
+      </c>
+      <c r="AS10">
+        <v>168</v>
+      </c>
+      <c r="AT10">
+        <v>121</v>
+      </c>
+      <c r="AU10">
+        <v>70.40596565632774</v>
+      </c>
+      <c r="AV10">
+        <v>58</v>
+      </c>
+      <c r="AW10">
+        <v>83</v>
+      </c>
+      <c r="AX10">
+        <v>108</v>
+      </c>
+      <c r="AY10">
+        <v>152.5</v>
+      </c>
+      <c r="AZ10">
+        <v>197</v>
+      </c>
+      <c r="BA10">
+        <v>283.6666666666667</v>
+      </c>
+      <c r="BB10">
+        <v>90.00740710260091</v>
+      </c>
+      <c r="BC10">
+        <v>193</v>
+      </c>
+      <c r="BD10">
+        <v>239</v>
+      </c>
+      <c r="BE10">
+        <v>285</v>
+      </c>
+      <c r="BF10">
+        <v>329</v>
+      </c>
+      <c r="BG10">
+        <v>373</v>
+      </c>
+      <c r="BH10">
+        <v>235.3333333333333</v>
+      </c>
+      <c r="BI10">
+        <v>107.2396071110545</v>
+      </c>
+      <c r="BJ10">
+        <v>168</v>
+      </c>
+      <c r="BK10">
+        <v>173.5</v>
+      </c>
+      <c r="BL10">
+        <v>179</v>
+      </c>
+      <c r="BM10">
+        <v>269</v>
+      </c>
+      <c r="BN10">
+        <v>359</v>
+      </c>
     </row>
     <row r="11" spans="1:66">
       <c r="A11" s="1"/>
@@ -20139,6 +23969,132 @@
       <c r="X11">
         <v>30</v>
       </c>
+      <c r="Y11">
+        <v>443.3333333333333</v>
+      </c>
+      <c r="Z11">
+        <v>176.6842758519652</v>
+      </c>
+      <c r="AA11">
+        <v>248</v>
+      </c>
+      <c r="AB11">
+        <v>369</v>
+      </c>
+      <c r="AC11">
+        <v>490</v>
+      </c>
+      <c r="AD11">
+        <v>541</v>
+      </c>
+      <c r="AE11">
+        <v>592</v>
+      </c>
+      <c r="AF11">
+        <v>390.3333333333333</v>
+      </c>
+      <c r="AG11">
+        <v>127.9309709700248</v>
+      </c>
+      <c r="AH11">
+        <v>313</v>
+      </c>
+      <c r="AI11">
+        <v>316.5</v>
+      </c>
+      <c r="AJ11">
+        <v>320</v>
+      </c>
+      <c r="AK11">
+        <v>429</v>
+      </c>
+      <c r="AL11">
+        <v>538</v>
+      </c>
+      <c r="AM11">
+        <v>242.3333333333333</v>
+      </c>
+      <c r="AN11">
+        <v>230.2614456076686</v>
+      </c>
+      <c r="AO11">
+        <v>88</v>
+      </c>
+      <c r="AP11">
+        <v>110</v>
+      </c>
+      <c r="AQ11">
+        <v>132</v>
+      </c>
+      <c r="AR11">
+        <v>319.5</v>
+      </c>
+      <c r="AS11">
+        <v>507</v>
+      </c>
+      <c r="AT11">
+        <v>146.3333333333333</v>
+      </c>
+      <c r="AU11">
+        <v>60.92892033618627</v>
+      </c>
+      <c r="AV11">
+        <v>90</v>
+      </c>
+      <c r="AW11">
+        <v>114</v>
+      </c>
+      <c r="AX11">
+        <v>138</v>
+      </c>
+      <c r="AY11">
+        <v>174.5</v>
+      </c>
+      <c r="AZ11">
+        <v>211</v>
+      </c>
+      <c r="BA11">
+        <v>201</v>
+      </c>
+      <c r="BB11">
+        <v>141.0425467722417</v>
+      </c>
+      <c r="BC11">
+        <v>85</v>
+      </c>
+      <c r="BD11">
+        <v>122.5</v>
+      </c>
+      <c r="BE11">
+        <v>160</v>
+      </c>
+      <c r="BF11">
+        <v>259</v>
+      </c>
+      <c r="BG11">
+        <v>358</v>
+      </c>
+      <c r="BH11">
+        <v>244</v>
+      </c>
+      <c r="BI11">
+        <v>76.96102909914862</v>
+      </c>
+      <c r="BJ11">
+        <v>175</v>
+      </c>
+      <c r="BK11">
+        <v>202.5</v>
+      </c>
+      <c r="BL11">
+        <v>230</v>
+      </c>
+      <c r="BM11">
+        <v>278.5</v>
+      </c>
+      <c r="BN11">
+        <v>327</v>
+      </c>
     </row>
     <row r="12" spans="1:66">
       <c r="A12" s="1"/>
@@ -20210,6 +24166,132 @@
       </c>
       <c r="X12">
         <v>42</v>
+      </c>
+      <c r="Y12">
+        <v>398.5</v>
+      </c>
+      <c r="Z12">
+        <v>31.81980515339464</v>
+      </c>
+      <c r="AA12">
+        <v>376</v>
+      </c>
+      <c r="AB12">
+        <v>387.25</v>
+      </c>
+      <c r="AC12">
+        <v>398.5</v>
+      </c>
+      <c r="AD12">
+        <v>409.75</v>
+      </c>
+      <c r="AE12">
+        <v>421</v>
+      </c>
+      <c r="AF12">
+        <v>360</v>
+      </c>
+      <c r="AG12">
+        <v>103.2375900532359</v>
+      </c>
+      <c r="AH12">
+        <v>287</v>
+      </c>
+      <c r="AI12">
+        <v>323.5</v>
+      </c>
+      <c r="AJ12">
+        <v>360</v>
+      </c>
+      <c r="AK12">
+        <v>396.5</v>
+      </c>
+      <c r="AL12">
+        <v>433</v>
+      </c>
+      <c r="AM12">
+        <v>158.5</v>
+      </c>
+      <c r="AN12">
+        <v>79.90306627407988</v>
+      </c>
+      <c r="AO12">
+        <v>102</v>
+      </c>
+      <c r="AP12">
+        <v>130.25</v>
+      </c>
+      <c r="AQ12">
+        <v>158.5</v>
+      </c>
+      <c r="AR12">
+        <v>186.75</v>
+      </c>
+      <c r="AS12">
+        <v>215</v>
+      </c>
+      <c r="AT12">
+        <v>133</v>
+      </c>
+      <c r="AU12">
+        <v>28.2842712474619</v>
+      </c>
+      <c r="AV12">
+        <v>113</v>
+      </c>
+      <c r="AW12">
+        <v>123</v>
+      </c>
+      <c r="AX12">
+        <v>133</v>
+      </c>
+      <c r="AY12">
+        <v>143</v>
+      </c>
+      <c r="AZ12">
+        <v>153</v>
+      </c>
+      <c r="BA12">
+        <v>240</v>
+      </c>
+      <c r="BB12">
+        <v>48.08326112068523</v>
+      </c>
+      <c r="BC12">
+        <v>206</v>
+      </c>
+      <c r="BD12">
+        <v>223</v>
+      </c>
+      <c r="BE12">
+        <v>240</v>
+      </c>
+      <c r="BF12">
+        <v>257</v>
+      </c>
+      <c r="BG12">
+        <v>274</v>
+      </c>
+      <c r="BH12">
+        <v>227</v>
+      </c>
+      <c r="BI12">
+        <v>131.5218613006979</v>
+      </c>
+      <c r="BJ12">
+        <v>134</v>
+      </c>
+      <c r="BK12">
+        <v>180.5</v>
+      </c>
+      <c r="BL12">
+        <v>227</v>
+      </c>
+      <c r="BM12">
+        <v>273.5</v>
+      </c>
+      <c r="BN12">
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:66">
@@ -20281,6 +24363,132 @@
       <c r="X13">
         <v>49</v>
       </c>
+      <c r="Y13">
+        <v>322.25</v>
+      </c>
+      <c r="Z13">
+        <v>45.10266067539697</v>
+      </c>
+      <c r="AA13">
+        <v>287</v>
+      </c>
+      <c r="AB13">
+        <v>297.5</v>
+      </c>
+      <c r="AC13">
+        <v>307</v>
+      </c>
+      <c r="AD13">
+        <v>331.75</v>
+      </c>
+      <c r="AE13">
+        <v>388</v>
+      </c>
+      <c r="AF13">
+        <v>447.25</v>
+      </c>
+      <c r="AG13">
+        <v>56.92904940947694</v>
+      </c>
+      <c r="AH13">
+        <v>364</v>
+      </c>
+      <c r="AI13">
+        <v>435.25</v>
+      </c>
+      <c r="AJ13">
+        <v>467.5</v>
+      </c>
+      <c r="AK13">
+        <v>479.5</v>
+      </c>
+      <c r="AL13">
+        <v>490</v>
+      </c>
+      <c r="AM13">
+        <v>116.75</v>
+      </c>
+      <c r="AN13">
+        <v>17.9884222024427</v>
+      </c>
+      <c r="AO13">
+        <v>97</v>
+      </c>
+      <c r="AP13">
+        <v>105.25</v>
+      </c>
+      <c r="AQ13">
+        <v>116</v>
+      </c>
+      <c r="AR13">
+        <v>127.5</v>
+      </c>
+      <c r="AS13">
+        <v>138</v>
+      </c>
+      <c r="AT13">
+        <v>200.5</v>
+      </c>
+      <c r="AU13">
+        <v>104.0656843857122</v>
+      </c>
+      <c r="AV13">
+        <v>103</v>
+      </c>
+      <c r="AW13">
+        <v>124.75</v>
+      </c>
+      <c r="AX13">
+        <v>184</v>
+      </c>
+      <c r="AY13">
+        <v>259.75</v>
+      </c>
+      <c r="AZ13">
+        <v>331</v>
+      </c>
+      <c r="BA13">
+        <v>205.5</v>
+      </c>
+      <c r="BB13">
+        <v>41.05687112611806</v>
+      </c>
+      <c r="BC13">
+        <v>175</v>
+      </c>
+      <c r="BD13">
+        <v>178</v>
+      </c>
+      <c r="BE13">
+        <v>191.5</v>
+      </c>
+      <c r="BF13">
+        <v>219</v>
+      </c>
+      <c r="BG13">
+        <v>264</v>
+      </c>
+      <c r="BH13">
+        <v>246.75</v>
+      </c>
+      <c r="BI13">
+        <v>157.6586502542756</v>
+      </c>
+      <c r="BJ13">
+        <v>33</v>
+      </c>
+      <c r="BK13">
+        <v>175.5</v>
+      </c>
+      <c r="BL13">
+        <v>290.5</v>
+      </c>
+      <c r="BM13">
+        <v>361.75</v>
+      </c>
+      <c r="BN13">
+        <v>373</v>
+      </c>
     </row>
     <row r="14" spans="1:66">
       <c r="A14" s="1"/>
@@ -20294,64 +24502,166 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>278</v>
       </c>
       <c r="K14">
-        <v>26</v>
-      </c>
-      <c r="L14">
-        <v>36.76955262170047</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N14">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="O14">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="P14">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>52</v>
       </c>
       <c r="R14">
-        <v>6.5</v>
-      </c>
-      <c r="S14">
-        <v>9.192388155425117</v>
+        <v>13</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U14">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="V14">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="W14">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="X14">
         <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>556</v>
+      </c>
+      <c r="AA14">
+        <v>556</v>
+      </c>
+      <c r="AB14">
+        <v>556</v>
+      </c>
+      <c r="AC14">
+        <v>556</v>
+      </c>
+      <c r="AD14">
+        <v>556</v>
+      </c>
+      <c r="AE14">
+        <v>556</v>
+      </c>
+      <c r="AF14">
+        <v>313</v>
+      </c>
+      <c r="AH14">
+        <v>313</v>
+      </c>
+      <c r="AI14">
+        <v>313</v>
+      </c>
+      <c r="AJ14">
+        <v>313</v>
+      </c>
+      <c r="AK14">
+        <v>313</v>
+      </c>
+      <c r="AL14">
+        <v>313</v>
+      </c>
+      <c r="AM14">
+        <v>197</v>
+      </c>
+      <c r="AO14">
+        <v>197</v>
+      </c>
+      <c r="AP14">
+        <v>197</v>
+      </c>
+      <c r="AQ14">
+        <v>197</v>
+      </c>
+      <c r="AR14">
+        <v>197</v>
+      </c>
+      <c r="AS14">
+        <v>197</v>
+      </c>
+      <c r="AT14">
+        <v>120</v>
+      </c>
+      <c r="AV14">
+        <v>120</v>
+      </c>
+      <c r="AW14">
+        <v>120</v>
+      </c>
+      <c r="AX14">
+        <v>120</v>
+      </c>
+      <c r="AY14">
+        <v>120</v>
+      </c>
+      <c r="AZ14">
+        <v>120</v>
+      </c>
+      <c r="BA14">
+        <v>359</v>
+      </c>
+      <c r="BC14">
+        <v>359</v>
+      </c>
+      <c r="BD14">
+        <v>359</v>
+      </c>
+      <c r="BE14">
+        <v>359</v>
+      </c>
+      <c r="BF14">
+        <v>359</v>
+      </c>
+      <c r="BG14">
+        <v>359</v>
+      </c>
+      <c r="BH14">
+        <v>193</v>
+      </c>
+      <c r="BJ14">
+        <v>193</v>
+      </c>
+      <c r="BK14">
+        <v>193</v>
+      </c>
+      <c r="BL14">
+        <v>193</v>
+      </c>
+      <c r="BM14">
+        <v>193</v>
+      </c>
+      <c r="BN14">
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:66">
@@ -20423,6 +24733,132 @@
       <c r="X15">
         <v>31</v>
       </c>
+      <c r="Y15">
+        <v>308.5</v>
+      </c>
+      <c r="Z15">
+        <v>89.58608522905031</v>
+      </c>
+      <c r="AA15">
+        <v>226</v>
+      </c>
+      <c r="AB15">
+        <v>270.25</v>
+      </c>
+      <c r="AC15">
+        <v>286</v>
+      </c>
+      <c r="AD15">
+        <v>324.25</v>
+      </c>
+      <c r="AE15">
+        <v>436</v>
+      </c>
+      <c r="AF15">
+        <v>416.5</v>
+      </c>
+      <c r="AG15">
+        <v>88.33836463658736</v>
+      </c>
+      <c r="AH15">
+        <v>293</v>
+      </c>
+      <c r="AI15">
+        <v>389</v>
+      </c>
+      <c r="AJ15">
+        <v>437</v>
+      </c>
+      <c r="AK15">
+        <v>464.5</v>
+      </c>
+      <c r="AL15">
+        <v>499</v>
+      </c>
+      <c r="AM15">
+        <v>139</v>
+      </c>
+      <c r="AN15">
+        <v>90.02592219281438</v>
+      </c>
+      <c r="AO15">
+        <v>58</v>
+      </c>
+      <c r="AP15">
+        <v>78.25</v>
+      </c>
+      <c r="AQ15">
+        <v>119</v>
+      </c>
+      <c r="AR15">
+        <v>179.75</v>
+      </c>
+      <c r="AS15">
+        <v>260</v>
+      </c>
+      <c r="AT15">
+        <v>192.75</v>
+      </c>
+      <c r="AU15">
+        <v>31.14883625434504</v>
+      </c>
+      <c r="AV15">
+        <v>164</v>
+      </c>
+      <c r="AW15">
+        <v>167</v>
+      </c>
+      <c r="AX15">
+        <v>191.5</v>
+      </c>
+      <c r="AY15">
+        <v>217.25</v>
+      </c>
+      <c r="AZ15">
+        <v>224</v>
+      </c>
+      <c r="BA15">
+        <v>169.5</v>
+      </c>
+      <c r="BB15">
+        <v>27.29468812791236</v>
+      </c>
+      <c r="BC15">
+        <v>134</v>
+      </c>
+      <c r="BD15">
+        <v>159.5</v>
+      </c>
+      <c r="BE15">
+        <v>172</v>
+      </c>
+      <c r="BF15">
+        <v>182</v>
+      </c>
+      <c r="BG15">
+        <v>200</v>
+      </c>
+      <c r="BH15">
+        <v>223.75</v>
+      </c>
+      <c r="BI15">
+        <v>72.27436152145056</v>
+      </c>
+      <c r="BJ15">
+        <v>129</v>
+      </c>
+      <c r="BK15">
+        <v>186.75</v>
+      </c>
+      <c r="BL15">
+        <v>240.5</v>
+      </c>
+      <c r="BM15">
+        <v>277.5</v>
+      </c>
+      <c r="BN15">
+        <v>285</v>
+      </c>
     </row>
     <row r="16" spans="1:66">
       <c r="A16" s="1"/>
@@ -20494,6 +24930,132 @@
       </c>
       <c r="X16">
         <v>28</v>
+      </c>
+      <c r="Y16">
+        <v>289.2</v>
+      </c>
+      <c r="Z16">
+        <v>100.0634798515422</v>
+      </c>
+      <c r="AA16">
+        <v>203</v>
+      </c>
+      <c r="AB16">
+        <v>208</v>
+      </c>
+      <c r="AC16">
+        <v>264</v>
+      </c>
+      <c r="AD16">
+        <v>327</v>
+      </c>
+      <c r="AE16">
+        <v>444</v>
+      </c>
+      <c r="AF16">
+        <v>368.8</v>
+      </c>
+      <c r="AG16">
+        <v>86.09703827658649</v>
+      </c>
+      <c r="AH16">
+        <v>290</v>
+      </c>
+      <c r="AI16">
+        <v>331</v>
+      </c>
+      <c r="AJ16">
+        <v>344</v>
+      </c>
+      <c r="AK16">
+        <v>364</v>
+      </c>
+      <c r="AL16">
+        <v>515</v>
+      </c>
+      <c r="AM16">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="AN16">
+        <v>44.38806145800918</v>
+      </c>
+      <c r="AO16">
+        <v>28</v>
+      </c>
+      <c r="AP16">
+        <v>37</v>
+      </c>
+      <c r="AQ16">
+        <v>100</v>
+      </c>
+      <c r="AR16">
+        <v>103</v>
+      </c>
+      <c r="AS16">
+        <v>129</v>
+      </c>
+      <c r="AT16">
+        <v>188.4</v>
+      </c>
+      <c r="AU16">
+        <v>55.86859582985776</v>
+      </c>
+      <c r="AV16">
+        <v>113</v>
+      </c>
+      <c r="AW16">
+        <v>159</v>
+      </c>
+      <c r="AX16">
+        <v>200</v>
+      </c>
+      <c r="AY16">
+        <v>208</v>
+      </c>
+      <c r="AZ16">
+        <v>262</v>
+      </c>
+      <c r="BA16">
+        <v>209.8</v>
+      </c>
+      <c r="BB16">
+        <v>92.22635198250011</v>
+      </c>
+      <c r="BC16">
+        <v>105</v>
+      </c>
+      <c r="BD16">
+        <v>164</v>
+      </c>
+      <c r="BE16">
+        <v>166</v>
+      </c>
+      <c r="BF16">
+        <v>299</v>
+      </c>
+      <c r="BG16">
+        <v>315</v>
+      </c>
+      <c r="BH16">
+        <v>180.4</v>
+      </c>
+      <c r="BI16">
+        <v>109.9649944300458</v>
+      </c>
+      <c r="BJ16">
+        <v>28</v>
+      </c>
+      <c r="BK16">
+        <v>136</v>
+      </c>
+      <c r="BL16">
+        <v>172</v>
+      </c>
+      <c r="BM16">
+        <v>251</v>
+      </c>
+      <c r="BN16">
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:66">
@@ -20565,6 +25127,132 @@
       <c r="X17">
         <v>31</v>
       </c>
+      <c r="Y17">
+        <v>343</v>
+      </c>
+      <c r="Z17">
+        <v>70.71067811865476</v>
+      </c>
+      <c r="AA17">
+        <v>293</v>
+      </c>
+      <c r="AB17">
+        <v>318</v>
+      </c>
+      <c r="AC17">
+        <v>343</v>
+      </c>
+      <c r="AD17">
+        <v>368</v>
+      </c>
+      <c r="AE17">
+        <v>393</v>
+      </c>
+      <c r="AF17">
+        <v>379</v>
+      </c>
+      <c r="AG17">
+        <v>80.61017305526642</v>
+      </c>
+      <c r="AH17">
+        <v>322</v>
+      </c>
+      <c r="AI17">
+        <v>350.5</v>
+      </c>
+      <c r="AJ17">
+        <v>379</v>
+      </c>
+      <c r="AK17">
+        <v>407.5</v>
+      </c>
+      <c r="AL17">
+        <v>436</v>
+      </c>
+      <c r="AM17">
+        <v>127.5</v>
+      </c>
+      <c r="AN17">
+        <v>51.61879502661797</v>
+      </c>
+      <c r="AO17">
+        <v>91</v>
+      </c>
+      <c r="AP17">
+        <v>109.25</v>
+      </c>
+      <c r="AQ17">
+        <v>127.5</v>
+      </c>
+      <c r="AR17">
+        <v>145.75</v>
+      </c>
+      <c r="AS17">
+        <v>164</v>
+      </c>
+      <c r="AT17">
+        <v>170.5</v>
+      </c>
+      <c r="AU17">
+        <v>126.572113832392</v>
+      </c>
+      <c r="AV17">
+        <v>81</v>
+      </c>
+      <c r="AW17">
+        <v>125.75</v>
+      </c>
+      <c r="AX17">
+        <v>170.5</v>
+      </c>
+      <c r="AY17">
+        <v>215.25</v>
+      </c>
+      <c r="AZ17">
+        <v>260</v>
+      </c>
+      <c r="BA17">
+        <v>215.5</v>
+      </c>
+      <c r="BB17">
+        <v>122.3294731452727</v>
+      </c>
+      <c r="BC17">
+        <v>129</v>
+      </c>
+      <c r="BD17">
+        <v>172.25</v>
+      </c>
+      <c r="BE17">
+        <v>215.5</v>
+      </c>
+      <c r="BF17">
+        <v>258.75</v>
+      </c>
+      <c r="BG17">
+        <v>302</v>
+      </c>
+      <c r="BH17">
+        <v>208.5</v>
+      </c>
+      <c r="BI17">
+        <v>45.96194077712559</v>
+      </c>
+      <c r="BJ17">
+        <v>176</v>
+      </c>
+      <c r="BK17">
+        <v>192.25</v>
+      </c>
+      <c r="BL17">
+        <v>208.5</v>
+      </c>
+      <c r="BM17">
+        <v>224.75</v>
+      </c>
+      <c r="BN17">
+        <v>241</v>
+      </c>
     </row>
     <row r="18" spans="1:66">
       <c r="A18" s="1"/>
@@ -20617,16 +25305,16 @@
         <v>41</v>
       </c>
       <c r="R18">
-        <v>29.33333333333333</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="S18">
-        <v>10.80123449734643</v>
+        <v>10.55777754390888</v>
       </c>
       <c r="T18">
         <v>15</v>
       </c>
       <c r="U18">
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="V18">
         <v>28</v>
@@ -20636,6 +25324,132 @@
       </c>
       <c r="X18">
         <v>45</v>
+      </c>
+      <c r="Y18">
+        <v>411.5</v>
+      </c>
+      <c r="Z18">
+        <v>162.6649931607904</v>
+      </c>
+      <c r="AA18">
+        <v>251</v>
+      </c>
+      <c r="AB18">
+        <v>287.25</v>
+      </c>
+      <c r="AC18">
+        <v>362</v>
+      </c>
+      <c r="AD18">
+        <v>536.5</v>
+      </c>
+      <c r="AE18">
+        <v>637</v>
+      </c>
+      <c r="AF18">
+        <v>445.1666666666667</v>
+      </c>
+      <c r="AG18">
+        <v>124.665017814408</v>
+      </c>
+      <c r="AH18">
+        <v>326</v>
+      </c>
+      <c r="AI18">
+        <v>368</v>
+      </c>
+      <c r="AJ18">
+        <v>410</v>
+      </c>
+      <c r="AK18">
+        <v>479.75</v>
+      </c>
+      <c r="AL18">
+        <v>668</v>
+      </c>
+      <c r="AM18">
+        <v>181.5</v>
+      </c>
+      <c r="AN18">
+        <v>107.4332350811424</v>
+      </c>
+      <c r="AO18">
+        <v>33</v>
+      </c>
+      <c r="AP18">
+        <v>98</v>
+      </c>
+      <c r="AQ18">
+        <v>216.5</v>
+      </c>
+      <c r="AR18">
+        <v>262.25</v>
+      </c>
+      <c r="AS18">
+        <v>287</v>
+      </c>
+      <c r="AT18">
+        <v>179</v>
+      </c>
+      <c r="AU18">
+        <v>67.12674578735364</v>
+      </c>
+      <c r="AV18">
+        <v>77</v>
+      </c>
+      <c r="AW18">
+        <v>163</v>
+      </c>
+      <c r="AX18">
+        <v>173.5</v>
+      </c>
+      <c r="AY18">
+        <v>198.25</v>
+      </c>
+      <c r="AZ18">
+        <v>284</v>
+      </c>
+      <c r="BA18">
+        <v>230</v>
+      </c>
+      <c r="BB18">
+        <v>88.92018893367242</v>
+      </c>
+      <c r="BC18">
+        <v>121</v>
+      </c>
+      <c r="BD18">
+        <v>180.5</v>
+      </c>
+      <c r="BE18">
+        <v>215</v>
+      </c>
+      <c r="BF18">
+        <v>269</v>
+      </c>
+      <c r="BG18">
+        <v>373</v>
+      </c>
+      <c r="BH18">
+        <v>266.1666666666667</v>
+      </c>
+      <c r="BI18">
+        <v>77.95746703598486</v>
+      </c>
+      <c r="BJ18">
+        <v>177</v>
+      </c>
+      <c r="BK18">
+        <v>217.5</v>
+      </c>
+      <c r="BL18">
+        <v>247.5</v>
+      </c>
+      <c r="BM18">
+        <v>312</v>
+      </c>
+      <c r="BN18">
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:66">
@@ -20707,6 +25521,132 @@
       <c r="X19">
         <v>44</v>
       </c>
+      <c r="Y19">
+        <v>499.1666666666667</v>
+      </c>
+      <c r="Z19">
+        <v>90.65851679057333</v>
+      </c>
+      <c r="AA19">
+        <v>342</v>
+      </c>
+      <c r="AB19">
+        <v>464.25</v>
+      </c>
+      <c r="AC19">
+        <v>534.5</v>
+      </c>
+      <c r="AD19">
+        <v>551.5</v>
+      </c>
+      <c r="AE19">
+        <v>586</v>
+      </c>
+      <c r="AF19">
+        <v>323</v>
+      </c>
+      <c r="AG19">
+        <v>121.6470303788794</v>
+      </c>
+      <c r="AH19">
+        <v>199</v>
+      </c>
+      <c r="AI19">
+        <v>253.25</v>
+      </c>
+      <c r="AJ19">
+        <v>268</v>
+      </c>
+      <c r="AK19">
+        <v>421.5</v>
+      </c>
+      <c r="AL19">
+        <v>482</v>
+      </c>
+      <c r="AM19">
+        <v>218</v>
+      </c>
+      <c r="AN19">
+        <v>92.5699735335384</v>
+      </c>
+      <c r="AO19">
+        <v>148</v>
+      </c>
+      <c r="AP19">
+        <v>168.25</v>
+      </c>
+      <c r="AQ19">
+        <v>195</v>
+      </c>
+      <c r="AR19">
+        <v>206</v>
+      </c>
+      <c r="AS19">
+        <v>401</v>
+      </c>
+      <c r="AT19">
+        <v>104.3333333333333</v>
+      </c>
+      <c r="AU19">
+        <v>64.50322989329035</v>
+      </c>
+      <c r="AV19">
+        <v>-15</v>
+      </c>
+      <c r="AW19">
+        <v>91.75</v>
+      </c>
+      <c r="AX19">
+        <v>132</v>
+      </c>
+      <c r="AY19">
+        <v>134.75</v>
+      </c>
+      <c r="AZ19">
+        <v>163</v>
+      </c>
+      <c r="BA19">
+        <v>281.1666666666667</v>
+      </c>
+      <c r="BB19">
+        <v>110.5484810690163</v>
+      </c>
+      <c r="BC19">
+        <v>140</v>
+      </c>
+      <c r="BD19">
+        <v>187.75</v>
+      </c>
+      <c r="BE19">
+        <v>311.5</v>
+      </c>
+      <c r="BF19">
+        <v>365.5</v>
+      </c>
+      <c r="BG19">
+        <v>394</v>
+      </c>
+      <c r="BH19">
+        <v>218.6666666666667</v>
+      </c>
+      <c r="BI19">
+        <v>91.38417076642249</v>
+      </c>
+      <c r="BJ19">
+        <v>120</v>
+      </c>
+      <c r="BK19">
+        <v>150.25</v>
+      </c>
+      <c r="BL19">
+        <v>199</v>
+      </c>
+      <c r="BM19">
+        <v>284.5</v>
+      </c>
+      <c r="BN19">
+        <v>347</v>
+      </c>
     </row>
     <row r="20" spans="1:66">
       <c r="A20" s="1"/>
@@ -20778,6 +25718,132 @@
       </c>
       <c r="X20">
         <v>32</v>
+      </c>
+      <c r="Y20">
+        <v>415</v>
+      </c>
+      <c r="Z20">
+        <v>44.79955356920424</v>
+      </c>
+      <c r="AA20">
+        <v>364</v>
+      </c>
+      <c r="AB20">
+        <v>398.5</v>
+      </c>
+      <c r="AC20">
+        <v>433</v>
+      </c>
+      <c r="AD20">
+        <v>440.5</v>
+      </c>
+      <c r="AE20">
+        <v>448</v>
+      </c>
+      <c r="AF20">
+        <v>356.3333333333333</v>
+      </c>
+      <c r="AG20">
+        <v>48.58326186386967</v>
+      </c>
+      <c r="AH20">
+        <v>301</v>
+      </c>
+      <c r="AI20">
+        <v>338.5</v>
+      </c>
+      <c r="AJ20">
+        <v>376</v>
+      </c>
+      <c r="AK20">
+        <v>384</v>
+      </c>
+      <c r="AL20">
+        <v>392</v>
+      </c>
+      <c r="AM20">
+        <v>225.6666666666667</v>
+      </c>
+      <c r="AN20">
+        <v>109.1848585351162</v>
+      </c>
+      <c r="AO20">
+        <v>113</v>
+      </c>
+      <c r="AP20">
+        <v>173</v>
+      </c>
+      <c r="AQ20">
+        <v>233</v>
+      </c>
+      <c r="AR20">
+        <v>282</v>
+      </c>
+      <c r="AS20">
+        <v>331</v>
+      </c>
+      <c r="AT20">
+        <v>87</v>
+      </c>
+      <c r="AU20">
+        <v>21.79449471770337</v>
+      </c>
+      <c r="AV20">
+        <v>62</v>
+      </c>
+      <c r="AW20">
+        <v>79.5</v>
+      </c>
+      <c r="AX20">
+        <v>97</v>
+      </c>
+      <c r="AY20">
+        <v>99.5</v>
+      </c>
+      <c r="AZ20">
+        <v>102</v>
+      </c>
+      <c r="BA20">
+        <v>189.3333333333333</v>
+      </c>
+      <c r="BB20">
+        <v>145.2113402366817</v>
+      </c>
+      <c r="BC20">
+        <v>33</v>
+      </c>
+      <c r="BD20">
+        <v>124</v>
+      </c>
+      <c r="BE20">
+        <v>215</v>
+      </c>
+      <c r="BF20">
+        <v>267.5</v>
+      </c>
+      <c r="BG20">
+        <v>320</v>
+      </c>
+      <c r="BH20">
+        <v>269.3333333333333</v>
+      </c>
+      <c r="BI20">
+        <v>63.12949653952052</v>
+      </c>
+      <c r="BJ20">
+        <v>204</v>
+      </c>
+      <c r="BK20">
+        <v>239</v>
+      </c>
+      <c r="BL20">
+        <v>274</v>
+      </c>
+      <c r="BM20">
+        <v>302</v>
+      </c>
+      <c r="BN20">
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:66">
@@ -20848,6 +25914,132 @@
       </c>
       <c r="X21">
         <v>41</v>
+      </c>
+      <c r="Y21">
+        <v>378.5</v>
+      </c>
+      <c r="Z21">
+        <v>170.412734265958</v>
+      </c>
+      <c r="AA21">
+        <v>258</v>
+      </c>
+      <c r="AB21">
+        <v>318.25</v>
+      </c>
+      <c r="AC21">
+        <v>378.5</v>
+      </c>
+      <c r="AD21">
+        <v>438.75</v>
+      </c>
+      <c r="AE21">
+        <v>499</v>
+      </c>
+      <c r="AF21">
+        <v>383.5</v>
+      </c>
+      <c r="AG21">
+        <v>139.3000358937499</v>
+      </c>
+      <c r="AH21">
+        <v>285</v>
+      </c>
+      <c r="AI21">
+        <v>334.25</v>
+      </c>
+      <c r="AJ21">
+        <v>383.5</v>
+      </c>
+      <c r="AK21">
+        <v>432.75</v>
+      </c>
+      <c r="AL21">
+        <v>482</v>
+      </c>
+      <c r="AM21">
+        <v>154</v>
+      </c>
+      <c r="AN21">
+        <v>98.99494936611666</v>
+      </c>
+      <c r="AO21">
+        <v>84</v>
+      </c>
+      <c r="AP21">
+        <v>119</v>
+      </c>
+      <c r="AQ21">
+        <v>154</v>
+      </c>
+      <c r="AR21">
+        <v>189</v>
+      </c>
+      <c r="AS21">
+        <v>224</v>
+      </c>
+      <c r="AT21">
+        <v>211</v>
+      </c>
+      <c r="AU21">
+        <v>178.19090885901</v>
+      </c>
+      <c r="AV21">
+        <v>85</v>
+      </c>
+      <c r="AW21">
+        <v>148</v>
+      </c>
+      <c r="AX21">
+        <v>211</v>
+      </c>
+      <c r="AY21">
+        <v>274</v>
+      </c>
+      <c r="AZ21">
+        <v>337</v>
+      </c>
+      <c r="BA21">
+        <v>224.5</v>
+      </c>
+      <c r="BB21">
+        <v>71.41778489984129</v>
+      </c>
+      <c r="BC21">
+        <v>174</v>
+      </c>
+      <c r="BD21">
+        <v>199.25</v>
+      </c>
+      <c r="BE21">
+        <v>224.5</v>
+      </c>
+      <c r="BF21">
+        <v>249.75</v>
+      </c>
+      <c r="BG21">
+        <v>275</v>
+      </c>
+      <c r="BH21">
+        <v>172.5</v>
+      </c>
+      <c r="BI21">
+        <v>38.89087296526012</v>
+      </c>
+      <c r="BJ21">
+        <v>145</v>
+      </c>
+      <c r="BK21">
+        <v>158.75</v>
+      </c>
+      <c r="BL21">
+        <v>172.5</v>
+      </c>
+      <c r="BM21">
+        <v>186.25</v>
+      </c>
+      <c r="BN21">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:66">
